--- a/AAII_Financials/Yearly/FLJ_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/FLJ_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="92">
   <si>
     <t>FLJ</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,130 +665,142 @@
     <col min="1" max="1" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43373</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43008</v>
       </c>
-      <c r="I7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="K7" s="2"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L7" s="2"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>144200</v>
+        <v>93700</v>
       </c>
       <c r="E8" s="3">
-        <v>168100</v>
+        <v>148800</v>
       </c>
       <c r="F8" s="3">
-        <v>171700</v>
+        <v>173500</v>
       </c>
       <c r="G8" s="3">
-        <v>123900</v>
+        <v>177200</v>
       </c>
       <c r="H8" s="3">
-        <v>72800</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>3</v>
+        <v>127800</v>
+      </c>
+      <c r="I8" s="3">
+        <v>75100</v>
       </c>
       <c r="J8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K8" s="3"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="3"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>132200</v>
+        <v>102100</v>
       </c>
       <c r="E9" s="3">
-        <v>169500</v>
+        <v>136400</v>
       </c>
       <c r="F9" s="3">
-        <v>187600</v>
+        <v>174900</v>
       </c>
       <c r="G9" s="3">
-        <v>141300</v>
+        <v>193500</v>
       </c>
       <c r="H9" s="3">
-        <v>79000</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>3</v>
+        <v>145800</v>
+      </c>
+      <c r="I9" s="3">
+        <v>81500</v>
       </c>
       <c r="J9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K9" s="3"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L9" s="3"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>12000</v>
+        <v>-8400</v>
       </c>
       <c r="E10" s="3">
-        <v>-1300</v>
+        <v>12400</v>
       </c>
       <c r="F10" s="3">
-        <v>-15900</v>
+        <v>-1400</v>
       </c>
       <c r="G10" s="3">
-        <v>-17400</v>
+        <v>-16400</v>
       </c>
       <c r="H10" s="3">
-        <v>-6200</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>3</v>
+        <v>-18000</v>
+      </c>
+      <c r="I10" s="3">
+        <v>-6400</v>
       </c>
       <c r="J10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K10" s="3"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L10" s="3"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -800,35 +812,39 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>400</v>
+      </c>
+      <c r="E12" s="3">
         <v>1100</v>
       </c>
-      <c r="E12" s="3">
-        <v>3500</v>
-      </c>
       <c r="F12" s="3">
-        <v>6500</v>
+        <v>3600</v>
       </c>
       <c r="G12" s="3">
-        <v>7200</v>
+        <v>6800</v>
       </c>
       <c r="H12" s="3">
-        <v>6100</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>3</v>
+        <v>7500</v>
+      </c>
+      <c r="I12" s="3">
+        <v>6300</v>
       </c>
       <c r="J12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K12" s="3"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L12" s="3"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -853,36 +869,42 @@
       <c r="J13" s="3">
         <v>0</v>
       </c>
-      <c r="K13" s="3"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K13" s="3">
+        <v>0</v>
+      </c>
+      <c r="L13" s="3"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>33600</v>
+        <v>-148000</v>
       </c>
       <c r="E14" s="3">
-        <v>117900</v>
+        <v>34700</v>
       </c>
       <c r="F14" s="3">
-        <v>6400</v>
+        <v>121600</v>
       </c>
       <c r="G14" s="3">
-        <v>7000</v>
+        <v>6600</v>
       </c>
       <c r="H14" s="3">
-        <v>3200</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>3</v>
+        <v>7300</v>
+      </c>
+      <c r="I14" s="3">
+        <v>3300</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K14" s="3"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L14" s="3"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -907,9 +929,12 @@
       <c r="J15" s="3">
         <v>0</v>
       </c>
-      <c r="K15" s="3"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K15" s="3">
+        <v>0</v>
+      </c>
+      <c r="L15" s="3"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -918,62 +943,69 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>205700</v>
+        <v>-33700</v>
       </c>
       <c r="E17" s="3">
-        <v>377100</v>
+        <v>212200</v>
       </c>
       <c r="F17" s="3">
-        <v>234100</v>
+        <v>389000</v>
       </c>
       <c r="G17" s="3">
-        <v>183200</v>
+        <v>241600</v>
       </c>
       <c r="H17" s="3">
-        <v>99100</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>3</v>
+        <v>189100</v>
+      </c>
+      <c r="I17" s="3">
+        <v>102300</v>
       </c>
       <c r="J17" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K17" s="3"/>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L17" s="3"/>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-61500</v>
+        <v>127400</v>
       </c>
       <c r="E18" s="3">
-        <v>-208900</v>
+        <v>-63400</v>
       </c>
       <c r="F18" s="3">
-        <v>-62400</v>
+        <v>-215500</v>
       </c>
       <c r="G18" s="3">
-        <v>-59400</v>
+        <v>-64400</v>
       </c>
       <c r="H18" s="3">
-        <v>-26400</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>3</v>
+        <v>-61200</v>
+      </c>
+      <c r="I18" s="3">
+        <v>-27200</v>
       </c>
       <c r="J18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K18" s="3"/>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L18" s="3"/>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -985,8 +1017,9 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -994,107 +1027,119 @@
         <v>0</v>
       </c>
       <c r="E20" s="3">
-        <v>13600</v>
+        <v>0</v>
       </c>
       <c r="F20" s="3">
-        <v>6200</v>
+        <v>14000</v>
       </c>
       <c r="G20" s="3">
+        <v>6400</v>
+      </c>
+      <c r="H20" s="3">
         <v>1200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-700</v>
       </c>
-      <c r="I20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K20" s="3"/>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L20" s="3"/>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-50600</v>
+        <v>131300</v>
       </c>
       <c r="E21" s="3">
-        <v>-159000</v>
+        <v>-52100</v>
       </c>
       <c r="F21" s="3">
-        <v>-26500</v>
+        <v>-163700</v>
       </c>
       <c r="G21" s="3">
-        <v>-37100</v>
+        <v>-27100</v>
       </c>
       <c r="H21" s="3">
-        <v>-13000</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>3</v>
+        <v>-38100</v>
+      </c>
+      <c r="I21" s="3">
+        <v>-13300</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K21" s="3"/>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L21" s="3"/>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>17700</v>
+        <v>9600</v>
       </c>
       <c r="E22" s="3">
-        <v>18200</v>
+        <v>18300</v>
       </c>
       <c r="F22" s="3">
-        <v>13100</v>
+        <v>18700</v>
       </c>
       <c r="G22" s="3">
-        <v>11100</v>
+        <v>13600</v>
       </c>
       <c r="H22" s="3">
-        <v>7000</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>3</v>
+        <v>11500</v>
+      </c>
+      <c r="I22" s="3">
+        <v>7200</v>
       </c>
       <c r="J22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K22" s="3"/>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L22" s="3"/>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-79200</v>
+        <v>117800</v>
       </c>
       <c r="E23" s="3">
-        <v>-213500</v>
+        <v>-81700</v>
       </c>
       <c r="F23" s="3">
-        <v>-69400</v>
+        <v>-220300</v>
       </c>
       <c r="G23" s="3">
-        <v>-69300</v>
+        <v>-71600</v>
       </c>
       <c r="H23" s="3">
-        <v>-34100</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>3</v>
+        <v>-71500</v>
+      </c>
+      <c r="I23" s="3">
+        <v>-35200</v>
       </c>
       <c r="J23" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K23" s="3"/>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L23" s="3"/>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1108,20 +1153,23 @@
         <v>0</v>
       </c>
       <c r="G24" s="3">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3">
         <v>300</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>100</v>
       </c>
-      <c r="I24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K24" s="3"/>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L24" s="3"/>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1146,63 +1194,72 @@
       <c r="J25" s="3">
         <v>0</v>
       </c>
-      <c r="K25" s="3"/>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K25" s="3">
+        <v>0</v>
+      </c>
+      <c r="L25" s="3"/>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-79200</v>
+        <v>117800</v>
       </c>
       <c r="E26" s="3">
-        <v>-213500</v>
+        <v>-81700</v>
       </c>
       <c r="F26" s="3">
-        <v>-69400</v>
+        <v>-220300</v>
       </c>
       <c r="G26" s="3">
-        <v>-69600</v>
+        <v>-71600</v>
       </c>
       <c r="H26" s="3">
-        <v>-34200</v>
-      </c>
-      <c r="I26" s="3" t="s">
-        <v>3</v>
+        <v>-71800</v>
+      </c>
+      <c r="I26" s="3">
+        <v>-35300</v>
       </c>
       <c r="J26" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K26" s="3"/>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L26" s="3"/>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-79200</v>
+        <v>117800</v>
       </c>
       <c r="E27" s="3">
-        <v>-213500</v>
+        <v>-81700</v>
       </c>
       <c r="F27" s="3">
-        <v>-112100</v>
+        <v>-220300</v>
       </c>
       <c r="G27" s="3">
-        <v>-88400</v>
+        <v>-115700</v>
       </c>
       <c r="H27" s="3">
-        <v>-42300</v>
-      </c>
-      <c r="I27" s="3" t="s">
-        <v>3</v>
+        <v>-91300</v>
+      </c>
+      <c r="I27" s="3">
+        <v>-43700</v>
       </c>
       <c r="J27" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K27" s="3"/>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L27" s="3"/>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1227,9 +1284,12 @@
       <c r="J28" s="3">
         <v>0</v>
       </c>
-      <c r="K28" s="3"/>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K28" s="3">
+        <v>0</v>
+      </c>
+      <c r="L28" s="3"/>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1254,9 +1314,12 @@
       <c r="J29" s="3">
         <v>0</v>
       </c>
-      <c r="K29" s="3"/>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3"/>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1281,9 +1344,12 @@
       <c r="J30" s="3">
         <v>0</v>
       </c>
-      <c r="K30" s="3"/>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K30" s="3">
+        <v>0</v>
+      </c>
+      <c r="L30" s="3"/>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1308,9 +1374,12 @@
       <c r="J31" s="3">
         <v>0</v>
       </c>
-      <c r="K31" s="3"/>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K31" s="3">
+        <v>0</v>
+      </c>
+      <c r="L31" s="3"/>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1318,53 +1387,59 @@
         <v>0</v>
       </c>
       <c r="E32" s="3">
-        <v>-13600</v>
+        <v>0</v>
       </c>
       <c r="F32" s="3">
-        <v>-6200</v>
+        <v>-14000</v>
       </c>
       <c r="G32" s="3">
+        <v>-6400</v>
+      </c>
+      <c r="H32" s="3">
         <v>-1200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>700</v>
       </c>
-      <c r="I32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K32" s="3"/>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L32" s="3"/>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-79200</v>
+        <v>117800</v>
       </c>
       <c r="E33" s="3">
-        <v>-213500</v>
+        <v>-81700</v>
       </c>
       <c r="F33" s="3">
-        <v>-112100</v>
+        <v>-220300</v>
       </c>
       <c r="G33" s="3">
-        <v>-88400</v>
+        <v>-115700</v>
       </c>
       <c r="H33" s="3">
-        <v>-42300</v>
-      </c>
-      <c r="I33" s="3" t="s">
-        <v>3</v>
+        <v>-91300</v>
+      </c>
+      <c r="I33" s="3">
+        <v>-43700</v>
       </c>
       <c r="J33" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K33" s="3"/>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L33" s="3"/>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1389,68 +1464,77 @@
       <c r="J34" s="3">
         <v>0</v>
       </c>
-      <c r="K34" s="3"/>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K34" s="3">
+        <v>0</v>
+      </c>
+      <c r="L34" s="3"/>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-79200</v>
+        <v>117800</v>
       </c>
       <c r="E35" s="3">
-        <v>-213500</v>
+        <v>-81700</v>
       </c>
       <c r="F35" s="3">
-        <v>-112100</v>
+        <v>-220300</v>
       </c>
       <c r="G35" s="3">
-        <v>-88400</v>
+        <v>-115700</v>
       </c>
       <c r="H35" s="3">
-        <v>-42300</v>
-      </c>
-      <c r="I35" s="3" t="s">
-        <v>3</v>
+        <v>-91300</v>
+      </c>
+      <c r="I35" s="3">
+        <v>-43700</v>
       </c>
       <c r="J35" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K35" s="3"/>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L35" s="3"/>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43373</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43008</v>
       </c>
-      <c r="I38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J38" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="K38" s="2"/>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L38" s="2"/>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1462,8 +1546,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1475,35 +1560,39 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>400</v>
+      </c>
+      <c r="E41" s="3">
         <v>2300</v>
       </c>
-      <c r="E41" s="3">
-        <v>3200</v>
-      </c>
       <c r="F41" s="3">
-        <v>22200</v>
+        <v>3300</v>
       </c>
       <c r="G41" s="3">
-        <v>14400</v>
+        <v>23000</v>
       </c>
       <c r="H41" s="3">
-        <v>50800</v>
-      </c>
-      <c r="I41" s="3" t="s">
-        <v>3</v>
+        <v>14900</v>
+      </c>
+      <c r="I41" s="3">
+        <v>52400</v>
       </c>
       <c r="J41" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K41" s="3"/>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L41" s="3"/>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1528,36 +1617,42 @@
       <c r="J42" s="3">
         <v>0</v>
       </c>
-      <c r="K42" s="3"/>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K42" s="3">
+        <v>0</v>
+      </c>
+      <c r="L42" s="3"/>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E43" s="3">
         <v>1900</v>
       </c>
-      <c r="E43" s="3">
-        <v>7500</v>
-      </c>
       <c r="F43" s="3">
-        <v>30300</v>
+        <v>7700</v>
       </c>
       <c r="G43" s="3">
-        <v>22100</v>
+        <v>31200</v>
       </c>
       <c r="H43" s="3">
-        <v>11400</v>
-      </c>
-      <c r="I43" s="3" t="s">
-        <v>3</v>
+        <v>22800</v>
+      </c>
+      <c r="I43" s="3">
+        <v>11800</v>
       </c>
       <c r="J43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K43" s="3"/>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L43" s="3"/>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1582,63 +1677,72 @@
       <c r="J44" s="3">
         <v>0</v>
       </c>
-      <c r="K44" s="3"/>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K44" s="3">
+        <v>0</v>
+      </c>
+      <c r="L44" s="3"/>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>20400</v>
+        <v>8500</v>
       </c>
       <c r="E45" s="3">
-        <v>17600</v>
+        <v>21100</v>
       </c>
       <c r="F45" s="3">
-        <v>30500</v>
+        <v>18100</v>
       </c>
       <c r="G45" s="3">
-        <v>25800</v>
+        <v>31500</v>
       </c>
       <c r="H45" s="3">
-        <v>13200</v>
-      </c>
-      <c r="I45" s="3" t="s">
-        <v>3</v>
+        <v>26700</v>
+      </c>
+      <c r="I45" s="3">
+        <v>13600</v>
       </c>
       <c r="J45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K45" s="3"/>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L45" s="3"/>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>24600</v>
+        <v>10200</v>
       </c>
       <c r="E46" s="3">
-        <v>28300</v>
+        <v>25400</v>
       </c>
       <c r="F46" s="3">
-        <v>83000</v>
+        <v>29200</v>
       </c>
       <c r="G46" s="3">
-        <v>62400</v>
+        <v>85700</v>
       </c>
       <c r="H46" s="3">
-        <v>75500</v>
-      </c>
-      <c r="I46" s="3" t="s">
-        <v>3</v>
+        <v>64300</v>
+      </c>
+      <c r="I46" s="3">
+        <v>77800</v>
       </c>
       <c r="J46" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K46" s="3"/>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L46" s="3"/>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1663,47 +1767,53 @@
       <c r="J47" s="3">
         <v>0</v>
       </c>
-      <c r="K47" s="3"/>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K47" s="3">
+        <v>0</v>
+      </c>
+      <c r="L47" s="3"/>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>5400</v>
+        <v>100</v>
       </c>
       <c r="E48" s="3">
-        <v>49800</v>
+        <v>5600</v>
       </c>
       <c r="F48" s="3">
-        <v>165000</v>
+        <v>51400</v>
       </c>
       <c r="G48" s="3">
-        <v>183900</v>
+        <v>170200</v>
       </c>
       <c r="H48" s="3">
-        <v>80500</v>
-      </c>
-      <c r="I48" s="3" t="s">
-        <v>3</v>
+        <v>189700</v>
+      </c>
+      <c r="I48" s="3">
+        <v>83100</v>
       </c>
       <c r="J48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K48" s="3"/>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L48" s="3"/>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>21200</v>
+        <v>1900</v>
       </c>
       <c r="E49" s="3">
-        <v>32400</v>
+        <v>21900</v>
       </c>
       <c r="F49" s="3">
-        <v>1700</v>
+        <v>33400</v>
       </c>
       <c r="G49" s="3">
         <v>1700</v>
@@ -1711,15 +1821,18 @@
       <c r="H49" s="3">
         <v>1800</v>
       </c>
-      <c r="I49" s="3" t="s">
-        <v>3</v>
+      <c r="I49" s="3">
+        <v>1900</v>
       </c>
       <c r="J49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K49" s="3"/>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L49" s="3"/>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1744,9 +1857,12 @@
       <c r="J50" s="3">
         <v>0</v>
       </c>
-      <c r="K50" s="3"/>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K50" s="3">
+        <v>0</v>
+      </c>
+      <c r="L50" s="3"/>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1771,36 +1887,42 @@
       <c r="J51" s="3">
         <v>0</v>
       </c>
-      <c r="K51" s="3"/>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K51" s="3">
+        <v>0</v>
+      </c>
+      <c r="L51" s="3"/>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1300</v>
+        <v>1500</v>
       </c>
       <c r="E52" s="3">
-        <v>8000</v>
+        <v>1400</v>
       </c>
       <c r="F52" s="3">
-        <v>800</v>
+        <v>8200</v>
       </c>
       <c r="G52" s="3">
+        <v>900</v>
+      </c>
+      <c r="H52" s="3">
         <v>100</v>
       </c>
-      <c r="H52" s="3">
-        <v>0</v>
-      </c>
-      <c r="I52" s="3" t="s">
-        <v>3</v>
+      <c r="I52" s="3">
+        <v>0</v>
       </c>
       <c r="J52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K52" s="3"/>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L52" s="3"/>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1825,36 +1947,42 @@
       <c r="J53" s="3">
         <v>0</v>
       </c>
-      <c r="K53" s="3"/>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K53" s="3">
+        <v>0</v>
+      </c>
+      <c r="L53" s="3"/>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>52600</v>
+        <v>13700</v>
       </c>
       <c r="E54" s="3">
-        <v>118400</v>
+        <v>54200</v>
       </c>
       <c r="F54" s="3">
-        <v>250500</v>
+        <v>122200</v>
       </c>
       <c r="G54" s="3">
-        <v>248000</v>
+        <v>258500</v>
       </c>
       <c r="H54" s="3">
-        <v>157800</v>
-      </c>
-      <c r="I54" s="3" t="s">
-        <v>3</v>
+        <v>255800</v>
+      </c>
+      <c r="I54" s="3">
+        <v>162800</v>
       </c>
       <c r="J54" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K54" s="3"/>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L54" s="3"/>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1866,8 +1994,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1879,170 +2008,189 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>44600</v>
+        <v>17600</v>
       </c>
       <c r="E57" s="3">
-        <v>41000</v>
+        <v>46000</v>
       </c>
       <c r="F57" s="3">
-        <v>38600</v>
+        <v>42300</v>
       </c>
       <c r="G57" s="3">
-        <v>60000</v>
+        <v>39800</v>
       </c>
       <c r="H57" s="3">
-        <v>15900</v>
-      </c>
-      <c r="I57" s="3" t="s">
-        <v>3</v>
+        <v>61900</v>
+      </c>
+      <c r="I57" s="3">
+        <v>16400</v>
       </c>
       <c r="J57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K57" s="3"/>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L57" s="3"/>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>80300</v>
+        <v>18100</v>
       </c>
       <c r="E58" s="3">
-        <v>90500</v>
+        <v>82800</v>
       </c>
       <c r="F58" s="3">
-        <v>149800</v>
+        <v>93400</v>
       </c>
       <c r="G58" s="3">
-        <v>172600</v>
+        <v>154500</v>
       </c>
       <c r="H58" s="3">
-        <v>119400</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>3</v>
+        <v>178100</v>
+      </c>
+      <c r="I58" s="3">
+        <v>123200</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K58" s="3"/>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L58" s="3"/>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>201900</v>
+        <v>60300</v>
       </c>
       <c r="E59" s="3">
-        <v>141600</v>
+        <v>208300</v>
       </c>
       <c r="F59" s="3">
-        <v>47900</v>
+        <v>146100</v>
       </c>
       <c r="G59" s="3">
-        <v>41600</v>
+        <v>49400</v>
       </c>
       <c r="H59" s="3">
-        <v>28000</v>
-      </c>
-      <c r="I59" s="3" t="s">
-        <v>3</v>
+        <v>42900</v>
+      </c>
+      <c r="I59" s="3">
+        <v>28900</v>
       </c>
       <c r="J59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K59" s="3"/>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L59" s="3"/>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>326800</v>
+        <v>96000</v>
       </c>
       <c r="E60" s="3">
-        <v>273100</v>
+        <v>337200</v>
       </c>
       <c r="F60" s="3">
-        <v>236200</v>
+        <v>281700</v>
       </c>
       <c r="G60" s="3">
-        <v>274200</v>
+        <v>243700</v>
       </c>
       <c r="H60" s="3">
-        <v>163300</v>
-      </c>
-      <c r="I60" s="3" t="s">
-        <v>3</v>
+        <v>282900</v>
+      </c>
+      <c r="I60" s="3">
+        <v>168500</v>
       </c>
       <c r="J60" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K60" s="3"/>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L60" s="3"/>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>71700</v>
+        <v>0</v>
       </c>
       <c r="E61" s="3">
-        <v>65000</v>
+        <v>74000</v>
       </c>
       <c r="F61" s="3">
-        <v>59600</v>
+        <v>67000</v>
       </c>
       <c r="G61" s="3">
-        <v>23000</v>
+        <v>61500</v>
       </c>
       <c r="H61" s="3">
-        <v>25400</v>
+        <v>23800</v>
       </c>
       <c r="I61" s="3">
-        <v>0</v>
+        <v>26200</v>
       </c>
       <c r="J61" s="3">
         <v>0</v>
       </c>
-      <c r="K61" s="3"/>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K61" s="3">
+        <v>0</v>
+      </c>
+      <c r="L61" s="3"/>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3">
-        <v>0</v>
+      <c r="D62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E62" s="3">
-        <v>58000</v>
+        <v>0</v>
       </c>
       <c r="F62" s="3">
-        <v>67500</v>
+        <v>59900</v>
       </c>
       <c r="G62" s="3">
-        <v>59200</v>
+        <v>69700</v>
       </c>
       <c r="H62" s="3">
-        <v>28400</v>
-      </c>
-      <c r="I62" s="3" t="s">
-        <v>3</v>
+        <v>61100</v>
+      </c>
+      <c r="I62" s="3">
+        <v>29300</v>
       </c>
       <c r="J62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K62" s="3"/>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L62" s="3"/>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2067,9 +2215,12 @@
       <c r="J63" s="3">
         <v>0</v>
       </c>
-      <c r="K63" s="3"/>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K63" s="3">
+        <v>0</v>
+      </c>
+      <c r="L63" s="3"/>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2094,9 +2245,12 @@
       <c r="J64" s="3">
         <v>0</v>
       </c>
-      <c r="K64" s="3"/>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K64" s="3">
+        <v>0</v>
+      </c>
+      <c r="L64" s="3"/>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2121,36 +2275,42 @@
       <c r="J65" s="3">
         <v>0</v>
       </c>
-      <c r="K65" s="3"/>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K65" s="3">
+        <v>0</v>
+      </c>
+      <c r="L65" s="3"/>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>399800</v>
+        <v>96000</v>
       </c>
       <c r="E66" s="3">
-        <v>397400</v>
+        <v>412500</v>
       </c>
       <c r="F66" s="3">
-        <v>364700</v>
+        <v>410000</v>
       </c>
       <c r="G66" s="3">
-        <v>358900</v>
+        <v>376300</v>
       </c>
       <c r="H66" s="3">
-        <v>219600</v>
-      </c>
-      <c r="I66" s="3" t="s">
-        <v>3</v>
+        <v>370300</v>
+      </c>
+      <c r="I66" s="3">
+        <v>226500</v>
       </c>
       <c r="J66" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K66" s="3"/>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L66" s="3"/>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2162,8 +2322,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2188,9 +2349,12 @@
       <c r="J68" s="3">
         <v>0</v>
       </c>
-      <c r="K68" s="3"/>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K68" s="3">
+        <v>0</v>
+      </c>
+      <c r="L68" s="3"/>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2215,9 +2379,12 @@
       <c r="J69" s="3">
         <v>0</v>
       </c>
-      <c r="K69" s="3"/>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K69" s="3">
+        <v>0</v>
+      </c>
+      <c r="L69" s="3"/>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2228,23 +2395,26 @@
         <v>0</v>
       </c>
       <c r="F70" s="3">
-        <v>203400</v>
+        <v>0</v>
       </c>
       <c r="G70" s="3">
-        <v>94600</v>
+        <v>209900</v>
       </c>
       <c r="H70" s="3">
-        <v>56300</v>
+        <v>97600</v>
       </c>
       <c r="I70" s="3">
-        <v>0</v>
+        <v>58100</v>
       </c>
       <c r="J70" s="3">
         <v>0</v>
       </c>
-      <c r="K70" s="3"/>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K70" s="3">
+        <v>0</v>
+      </c>
+      <c r="L70" s="3"/>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2269,36 +2439,42 @@
       <c r="J71" s="3">
         <v>0</v>
       </c>
-      <c r="K71" s="3"/>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K71" s="3">
+        <v>0</v>
+      </c>
+      <c r="L71" s="3"/>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-609500</v>
+        <v>-511100</v>
       </c>
       <c r="E72" s="3">
-        <v>-530300</v>
+        <v>-628900</v>
       </c>
       <c r="F72" s="3">
-        <v>-316800</v>
+        <v>-547100</v>
       </c>
       <c r="G72" s="3">
-        <v>-205800</v>
+        <v>-326900</v>
       </c>
       <c r="H72" s="3">
-        <v>-117700</v>
-      </c>
-      <c r="I72" s="3" t="s">
-        <v>3</v>
+        <v>-212300</v>
+      </c>
+      <c r="I72" s="3">
+        <v>-121400</v>
       </c>
       <c r="J72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K72" s="3"/>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L72" s="3"/>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2323,9 +2499,12 @@
       <c r="J73" s="3">
         <v>0</v>
       </c>
-      <c r="K73" s="3"/>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K73" s="3">
+        <v>0</v>
+      </c>
+      <c r="L73" s="3"/>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2350,9 +2529,12 @@
       <c r="J74" s="3">
         <v>0</v>
       </c>
-      <c r="K74" s="3"/>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K74" s="3">
+        <v>0</v>
+      </c>
+      <c r="L74" s="3"/>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2377,36 +2559,42 @@
       <c r="J75" s="3">
         <v>0</v>
       </c>
-      <c r="K75" s="3"/>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K75" s="3">
+        <v>0</v>
+      </c>
+      <c r="L75" s="3"/>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-347200</v>
+        <v>-82300</v>
       </c>
       <c r="E76" s="3">
-        <v>-279000</v>
+        <v>-358300</v>
       </c>
       <c r="F76" s="3">
-        <v>-317600</v>
+        <v>-287800</v>
       </c>
       <c r="G76" s="3">
-        <v>-205500</v>
+        <v>-327700</v>
       </c>
       <c r="H76" s="3">
-        <v>-118100</v>
-      </c>
-      <c r="I76" s="3" t="s">
-        <v>3</v>
+        <v>-212100</v>
+      </c>
+      <c r="I76" s="3">
+        <v>-121800</v>
       </c>
       <c r="J76" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K76" s="3"/>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L76" s="3"/>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2431,68 +2619,77 @@
       <c r="J77" s="3">
         <v>0</v>
       </c>
-      <c r="K77" s="3"/>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K77" s="3">
+        <v>0</v>
+      </c>
+      <c r="L77" s="3"/>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43373</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43008</v>
       </c>
-      <c r="I80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J80" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="K80" s="2"/>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L80" s="2"/>
+    </row>
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-79200</v>
+        <v>117800</v>
       </c>
       <c r="E81" s="3">
-        <v>-213500</v>
+        <v>-81700</v>
       </c>
       <c r="F81" s="3">
-        <v>-112100</v>
+        <v>-220300</v>
       </c>
       <c r="G81" s="3">
-        <v>-88400</v>
+        <v>-115700</v>
       </c>
       <c r="H81" s="3">
-        <v>-42300</v>
-      </c>
-      <c r="I81" s="3" t="s">
-        <v>3</v>
+        <v>-91300</v>
+      </c>
+      <c r="I81" s="3">
+        <v>-43700</v>
       </c>
       <c r="J81" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K81" s="3"/>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L81" s="3"/>
+    </row>
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2504,35 +2701,39 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>11000</v>
+        <v>3900</v>
       </c>
       <c r="E83" s="3">
-        <v>36600</v>
+        <v>11400</v>
       </c>
       <c r="F83" s="3">
-        <v>29900</v>
+        <v>37800</v>
       </c>
       <c r="G83" s="3">
-        <v>21200</v>
+        <v>30900</v>
       </c>
       <c r="H83" s="3">
-        <v>14200</v>
-      </c>
-      <c r="I83" s="3" t="s">
-        <v>3</v>
+        <v>21900</v>
+      </c>
+      <c r="I83" s="3">
+        <v>14600</v>
       </c>
       <c r="J83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K83" s="3"/>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L83" s="3"/>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2557,9 +2758,12 @@
       <c r="J84" s="3">
         <v>0</v>
       </c>
-      <c r="K84" s="3"/>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K84" s="3">
+        <v>0</v>
+      </c>
+      <c r="L84" s="3"/>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2584,9 +2788,12 @@
       <c r="J85" s="3">
         <v>0</v>
       </c>
-      <c r="K85" s="3"/>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K85" s="3">
+        <v>0</v>
+      </c>
+      <c r="L85" s="3"/>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2611,9 +2818,12 @@
       <c r="J86" s="3">
         <v>0</v>
       </c>
-      <c r="K86" s="3"/>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K86" s="3">
+        <v>0</v>
+      </c>
+      <c r="L86" s="3"/>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2638,9 +2848,12 @@
       <c r="J87" s="3">
         <v>0</v>
       </c>
-      <c r="K87" s="3"/>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K87" s="3">
+        <v>0</v>
+      </c>
+      <c r="L87" s="3"/>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2665,36 +2878,42 @@
       <c r="J88" s="3">
         <v>0</v>
       </c>
-      <c r="K88" s="3"/>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K88" s="3">
+        <v>0</v>
+      </c>
+      <c r="L88" s="3"/>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-15300</v>
+        <v>-5700</v>
       </c>
       <c r="E89" s="3">
-        <v>7600</v>
+        <v>-15700</v>
       </c>
       <c r="F89" s="3">
-        <v>-12300</v>
+        <v>7900</v>
       </c>
       <c r="G89" s="3">
-        <v>-16300</v>
+        <v>-12700</v>
       </c>
       <c r="H89" s="3">
-        <v>-6100</v>
-      </c>
-      <c r="I89" s="3" t="s">
-        <v>3</v>
+        <v>-16800</v>
+      </c>
+      <c r="I89" s="3">
+        <v>-6300</v>
       </c>
       <c r="J89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K89" s="3"/>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L89" s="3"/>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2706,8 +2925,9 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -2715,26 +2935,29 @@
         <v>0</v>
       </c>
       <c r="E91" s="3">
-        <v>-13800</v>
+        <v>0</v>
       </c>
       <c r="F91" s="3">
-        <v>-47600</v>
+        <v>-14200</v>
       </c>
       <c r="G91" s="3">
-        <v>-93900</v>
+        <v>-49100</v>
       </c>
       <c r="H91" s="3">
-        <v>-39700</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>3</v>
+        <v>-96800</v>
+      </c>
+      <c r="I91" s="3">
+        <v>-41000</v>
       </c>
       <c r="J91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K91" s="3"/>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L91" s="3"/>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2759,9 +2982,12 @@
       <c r="J92" s="3">
         <v>0</v>
       </c>
-      <c r="K92" s="3"/>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K92" s="3">
+        <v>0</v>
+      </c>
+      <c r="L92" s="3"/>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2786,36 +3012,42 @@
       <c r="J93" s="3">
         <v>0</v>
       </c>
-      <c r="K93" s="3"/>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K93" s="3">
+        <v>0</v>
+      </c>
+      <c r="L93" s="3"/>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E94" s="3">
         <v>-900</v>
       </c>
-      <c r="E94" s="3">
-        <v>-19300</v>
-      </c>
       <c r="F94" s="3">
-        <v>-48900</v>
+        <v>-19900</v>
       </c>
       <c r="G94" s="3">
-        <v>-93900</v>
+        <v>-50500</v>
       </c>
       <c r="H94" s="3">
-        <v>-39700</v>
-      </c>
-      <c r="I94" s="3" t="s">
-        <v>3</v>
+        <v>-96800</v>
+      </c>
+      <c r="I94" s="3">
+        <v>-41000</v>
       </c>
       <c r="J94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K94" s="3"/>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L94" s="3"/>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2827,8 +3059,9 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -2853,9 +3086,12 @@
       <c r="J96" s="3">
         <v>0</v>
       </c>
-      <c r="K96" s="3"/>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3"/>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -2880,9 +3116,12 @@
       <c r="J97" s="3">
         <v>0</v>
       </c>
-      <c r="K97" s="3"/>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K97" s="3">
+        <v>0</v>
+      </c>
+      <c r="L97" s="3"/>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -2907,9 +3146,12 @@
       <c r="J98" s="3">
         <v>0</v>
       </c>
-      <c r="K98" s="3"/>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K98" s="3">
+        <v>0</v>
+      </c>
+      <c r="L98" s="3"/>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -2934,88 +3176,100 @@
       <c r="J99" s="3">
         <v>0</v>
       </c>
-      <c r="K99" s="3"/>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K99" s="3">
+        <v>0</v>
+      </c>
+      <c r="L99" s="3"/>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>14100</v>
+        <v>4200</v>
       </c>
       <c r="E100" s="3">
-        <v>-18800</v>
+        <v>14600</v>
       </c>
       <c r="F100" s="3">
-        <v>79300</v>
+        <v>-19400</v>
       </c>
       <c r="G100" s="3">
-        <v>75100</v>
+        <v>81800</v>
       </c>
       <c r="H100" s="3">
-        <v>90400</v>
-      </c>
-      <c r="I100" s="3" t="s">
-        <v>3</v>
+        <v>77500</v>
+      </c>
+      <c r="I100" s="3">
+        <v>93300</v>
       </c>
       <c r="J100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K100" s="3"/>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L100" s="3"/>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>800</v>
+      </c>
+      <c r="E101" s="3">
         <v>300</v>
       </c>
-      <c r="E101" s="3">
-        <v>0</v>
-      </c>
       <c r="F101" s="3">
+        <v>0</v>
+      </c>
+      <c r="G101" s="3">
         <v>300</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>500</v>
       </c>
-      <c r="H101" s="3">
-        <v>0</v>
-      </c>
-      <c r="I101" s="3" t="s">
-        <v>3</v>
+      <c r="I101" s="3">
+        <v>0</v>
       </c>
       <c r="J101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K101" s="3"/>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L101" s="3"/>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-1700</v>
+        <v>-2400</v>
       </c>
       <c r="E102" s="3">
-        <v>-30500</v>
+        <v>-1800</v>
       </c>
       <c r="F102" s="3">
-        <v>18400</v>
+        <v>-31500</v>
       </c>
       <c r="G102" s="3">
-        <v>-34600</v>
+        <v>19000</v>
       </c>
       <c r="H102" s="3">
-        <v>44600</v>
-      </c>
-      <c r="I102" s="3" t="s">
-        <v>3</v>
+        <v>-35700</v>
+      </c>
+      <c r="I102" s="3">
+        <v>46000</v>
       </c>
       <c r="J102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K102" s="3"/>
+      <c r="K102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/FLJ_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/FLJ_YR_FIN.xlsx
@@ -715,22 +715,22 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>93700</v>
+        <v>92700</v>
       </c>
       <c r="E8" s="3">
-        <v>148800</v>
+        <v>147300</v>
       </c>
       <c r="F8" s="3">
-        <v>173500</v>
+        <v>171700</v>
       </c>
       <c r="G8" s="3">
-        <v>177200</v>
+        <v>175400</v>
       </c>
       <c r="H8" s="3">
-        <v>127800</v>
+        <v>126500</v>
       </c>
       <c r="I8" s="3">
-        <v>75100</v>
+        <v>74300</v>
       </c>
       <c r="J8" s="3" t="s">
         <v>3</v>
@@ -745,22 +745,22 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>102100</v>
+        <v>101100</v>
       </c>
       <c r="E9" s="3">
-        <v>136400</v>
+        <v>135000</v>
       </c>
       <c r="F9" s="3">
-        <v>174900</v>
+        <v>173100</v>
       </c>
       <c r="G9" s="3">
-        <v>193500</v>
+        <v>191600</v>
       </c>
       <c r="H9" s="3">
-        <v>145800</v>
+        <v>144300</v>
       </c>
       <c r="I9" s="3">
-        <v>81500</v>
+        <v>80700</v>
       </c>
       <c r="J9" s="3" t="s">
         <v>3</v>
@@ -775,19 +775,19 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>-8400</v>
+        <v>-8300</v>
       </c>
       <c r="E10" s="3">
-        <v>12400</v>
+        <v>12300</v>
       </c>
       <c r="F10" s="3">
         <v>-1400</v>
       </c>
       <c r="G10" s="3">
-        <v>-16400</v>
+        <v>-16200</v>
       </c>
       <c r="H10" s="3">
-        <v>-18000</v>
+        <v>-17800</v>
       </c>
       <c r="I10" s="3">
         <v>-6400</v>
@@ -825,13 +825,13 @@
         <v>1100</v>
       </c>
       <c r="F12" s="3">
-        <v>3600</v>
+        <v>3500</v>
       </c>
       <c r="G12" s="3">
-        <v>6800</v>
+        <v>6700</v>
       </c>
       <c r="H12" s="3">
-        <v>7500</v>
+        <v>7400</v>
       </c>
       <c r="I12" s="3">
         <v>6300</v>
@@ -879,22 +879,22 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>-148000</v>
+        <v>-146500</v>
       </c>
       <c r="E14" s="3">
-        <v>34700</v>
+        <v>34300</v>
       </c>
       <c r="F14" s="3">
-        <v>121600</v>
+        <v>120400</v>
       </c>
       <c r="G14" s="3">
         <v>6600</v>
       </c>
       <c r="H14" s="3">
-        <v>7300</v>
+        <v>7200</v>
       </c>
       <c r="I14" s="3">
-        <v>3300</v>
+        <v>3200</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>3</v>
@@ -950,22 +950,22 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>-33700</v>
+        <v>-33300</v>
       </c>
       <c r="E17" s="3">
-        <v>212200</v>
+        <v>210100</v>
       </c>
       <c r="F17" s="3">
-        <v>389000</v>
+        <v>385000</v>
       </c>
       <c r="G17" s="3">
-        <v>241600</v>
+        <v>239100</v>
       </c>
       <c r="H17" s="3">
-        <v>189100</v>
+        <v>187100</v>
       </c>
       <c r="I17" s="3">
-        <v>102300</v>
+        <v>101300</v>
       </c>
       <c r="J17" s="3" t="s">
         <v>3</v>
@@ -980,22 +980,22 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>127400</v>
+        <v>126100</v>
       </c>
       <c r="E18" s="3">
-        <v>-63400</v>
+        <v>-62800</v>
       </c>
       <c r="F18" s="3">
-        <v>-215500</v>
+        <v>-213300</v>
       </c>
       <c r="G18" s="3">
-        <v>-64400</v>
+        <v>-63700</v>
       </c>
       <c r="H18" s="3">
-        <v>-61200</v>
+        <v>-60600</v>
       </c>
       <c r="I18" s="3">
-        <v>-27200</v>
+        <v>-26900</v>
       </c>
       <c r="J18" s="3" t="s">
         <v>3</v>
@@ -1030,10 +1030,10 @@
         <v>0</v>
       </c>
       <c r="F20" s="3">
-        <v>14000</v>
+        <v>13900</v>
       </c>
       <c r="G20" s="3">
-        <v>6400</v>
+        <v>6300</v>
       </c>
       <c r="H20" s="3">
         <v>1200</v>
@@ -1054,22 +1054,22 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>131300</v>
+        <v>130000</v>
       </c>
       <c r="E21" s="3">
-        <v>-52100</v>
+        <v>-51500</v>
       </c>
       <c r="F21" s="3">
-        <v>-163700</v>
+        <v>-161900</v>
       </c>
       <c r="G21" s="3">
-        <v>-27100</v>
+        <v>-26700</v>
       </c>
       <c r="H21" s="3">
-        <v>-38100</v>
+        <v>-37600</v>
       </c>
       <c r="I21" s="3">
-        <v>-13300</v>
+        <v>-13100</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>3</v>
@@ -1084,19 +1084,19 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>9600</v>
+        <v>9500</v>
       </c>
       <c r="E22" s="3">
-        <v>18300</v>
+        <v>18100</v>
       </c>
       <c r="F22" s="3">
-        <v>18700</v>
+        <v>18600</v>
       </c>
       <c r="G22" s="3">
-        <v>13600</v>
+        <v>13400</v>
       </c>
       <c r="H22" s="3">
-        <v>11500</v>
+        <v>11300</v>
       </c>
       <c r="I22" s="3">
         <v>7200</v>
@@ -1114,22 +1114,22 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>117800</v>
+        <v>116600</v>
       </c>
       <c r="E23" s="3">
-        <v>-81700</v>
+        <v>-80900</v>
       </c>
       <c r="F23" s="3">
-        <v>-220300</v>
+        <v>-218000</v>
       </c>
       <c r="G23" s="3">
-        <v>-71600</v>
+        <v>-70800</v>
       </c>
       <c r="H23" s="3">
-        <v>-71500</v>
+        <v>-70700</v>
       </c>
       <c r="I23" s="3">
-        <v>-35200</v>
+        <v>-34800</v>
       </c>
       <c r="J23" s="3" t="s">
         <v>3</v>
@@ -1204,22 +1204,22 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>117800</v>
+        <v>116600</v>
       </c>
       <c r="E26" s="3">
-        <v>-81700</v>
+        <v>-80900</v>
       </c>
       <c r="F26" s="3">
-        <v>-220300</v>
+        <v>-218000</v>
       </c>
       <c r="G26" s="3">
-        <v>-71600</v>
+        <v>-70800</v>
       </c>
       <c r="H26" s="3">
-        <v>-71800</v>
+        <v>-71100</v>
       </c>
       <c r="I26" s="3">
-        <v>-35300</v>
+        <v>-34900</v>
       </c>
       <c r="J26" s="3" t="s">
         <v>3</v>
@@ -1234,22 +1234,22 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>117800</v>
+        <v>116600</v>
       </c>
       <c r="E27" s="3">
-        <v>-81700</v>
+        <v>-80900</v>
       </c>
       <c r="F27" s="3">
-        <v>-220300</v>
+        <v>-218000</v>
       </c>
       <c r="G27" s="3">
-        <v>-115700</v>
+        <v>-114500</v>
       </c>
       <c r="H27" s="3">
-        <v>-91300</v>
+        <v>-90300</v>
       </c>
       <c r="I27" s="3">
-        <v>-43700</v>
+        <v>-43200</v>
       </c>
       <c r="J27" s="3" t="s">
         <v>3</v>
@@ -1390,10 +1390,10 @@
         <v>0</v>
       </c>
       <c r="F32" s="3">
-        <v>-14000</v>
+        <v>-13900</v>
       </c>
       <c r="G32" s="3">
-        <v>-6400</v>
+        <v>-6300</v>
       </c>
       <c r="H32" s="3">
         <v>-1200</v>
@@ -1414,22 +1414,22 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>117800</v>
+        <v>116600</v>
       </c>
       <c r="E33" s="3">
-        <v>-81700</v>
+        <v>-80900</v>
       </c>
       <c r="F33" s="3">
-        <v>-220300</v>
+        <v>-218000</v>
       </c>
       <c r="G33" s="3">
-        <v>-115700</v>
+        <v>-114500</v>
       </c>
       <c r="H33" s="3">
-        <v>-91300</v>
+        <v>-90300</v>
       </c>
       <c r="I33" s="3">
-        <v>-43700</v>
+        <v>-43200</v>
       </c>
       <c r="J33" s="3" t="s">
         <v>3</v>
@@ -1474,22 +1474,22 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>117800</v>
+        <v>116600</v>
       </c>
       <c r="E35" s="3">
-        <v>-81700</v>
+        <v>-80900</v>
       </c>
       <c r="F35" s="3">
-        <v>-220300</v>
+        <v>-218000</v>
       </c>
       <c r="G35" s="3">
-        <v>-115700</v>
+        <v>-114500</v>
       </c>
       <c r="H35" s="3">
-        <v>-91300</v>
+        <v>-90300</v>
       </c>
       <c r="I35" s="3">
-        <v>-43700</v>
+        <v>-43200</v>
       </c>
       <c r="J35" s="3" t="s">
         <v>3</v>
@@ -1576,13 +1576,13 @@
         <v>3300</v>
       </c>
       <c r="G41" s="3">
-        <v>23000</v>
+        <v>22700</v>
       </c>
       <c r="H41" s="3">
-        <v>14900</v>
+        <v>14700</v>
       </c>
       <c r="I41" s="3">
-        <v>52400</v>
+        <v>51900</v>
       </c>
       <c r="J41" s="3" t="s">
         <v>3</v>
@@ -1633,16 +1633,16 @@
         <v>1900</v>
       </c>
       <c r="F43" s="3">
-        <v>7700</v>
+        <v>7600</v>
       </c>
       <c r="G43" s="3">
-        <v>31200</v>
+        <v>30900</v>
       </c>
       <c r="H43" s="3">
-        <v>22800</v>
+        <v>22500</v>
       </c>
       <c r="I43" s="3">
-        <v>11800</v>
+        <v>11700</v>
       </c>
       <c r="J43" s="3" t="s">
         <v>3</v>
@@ -1687,22 +1687,22 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>8500</v>
+        <v>8400</v>
       </c>
       <c r="E45" s="3">
-        <v>21100</v>
+        <v>20900</v>
       </c>
       <c r="F45" s="3">
-        <v>18100</v>
+        <v>18000</v>
       </c>
       <c r="G45" s="3">
-        <v>31500</v>
+        <v>31200</v>
       </c>
       <c r="H45" s="3">
-        <v>26700</v>
+        <v>26400</v>
       </c>
       <c r="I45" s="3">
-        <v>13600</v>
+        <v>13500</v>
       </c>
       <c r="J45" s="3" t="s">
         <v>3</v>
@@ -1717,22 +1717,22 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>10200</v>
+        <v>10100</v>
       </c>
       <c r="E46" s="3">
-        <v>25400</v>
+        <v>25100</v>
       </c>
       <c r="F46" s="3">
-        <v>29200</v>
+        <v>28900</v>
       </c>
       <c r="G46" s="3">
-        <v>85700</v>
+        <v>84800</v>
       </c>
       <c r="H46" s="3">
-        <v>64300</v>
+        <v>63700</v>
       </c>
       <c r="I46" s="3">
-        <v>77800</v>
+        <v>77100</v>
       </c>
       <c r="J46" s="3" t="s">
         <v>3</v>
@@ -1780,19 +1780,19 @@
         <v>100</v>
       </c>
       <c r="E48" s="3">
-        <v>5600</v>
+        <v>5500</v>
       </c>
       <c r="F48" s="3">
-        <v>51400</v>
+        <v>50900</v>
       </c>
       <c r="G48" s="3">
-        <v>170200</v>
+        <v>168500</v>
       </c>
       <c r="H48" s="3">
-        <v>189700</v>
+        <v>187800</v>
       </c>
       <c r="I48" s="3">
-        <v>83100</v>
+        <v>82200</v>
       </c>
       <c r="J48" s="3" t="s">
         <v>3</v>
@@ -1810,16 +1810,16 @@
         <v>1900</v>
       </c>
       <c r="E49" s="3">
-        <v>21900</v>
+        <v>21700</v>
       </c>
       <c r="F49" s="3">
-        <v>33400</v>
+        <v>33100</v>
       </c>
       <c r="G49" s="3">
         <v>1700</v>
       </c>
       <c r="H49" s="3">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="I49" s="3">
         <v>1900</v>
@@ -1903,10 +1903,10 @@
         <v>1400</v>
       </c>
       <c r="F52" s="3">
-        <v>8200</v>
+        <v>8100</v>
       </c>
       <c r="G52" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="H52" s="3">
         <v>100</v>
@@ -1957,22 +1957,22 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>13700</v>
+        <v>13600</v>
       </c>
       <c r="E54" s="3">
-        <v>54200</v>
+        <v>53700</v>
       </c>
       <c r="F54" s="3">
-        <v>122200</v>
+        <v>120900</v>
       </c>
       <c r="G54" s="3">
-        <v>258500</v>
+        <v>255800</v>
       </c>
       <c r="H54" s="3">
-        <v>255800</v>
+        <v>253200</v>
       </c>
       <c r="I54" s="3">
-        <v>162800</v>
+        <v>161100</v>
       </c>
       <c r="J54" s="3" t="s">
         <v>3</v>
@@ -2015,22 +2015,22 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>17600</v>
+        <v>17400</v>
       </c>
       <c r="E57" s="3">
-        <v>46000</v>
+        <v>45500</v>
       </c>
       <c r="F57" s="3">
-        <v>42300</v>
+        <v>41900</v>
       </c>
       <c r="G57" s="3">
-        <v>39800</v>
+        <v>39400</v>
       </c>
       <c r="H57" s="3">
-        <v>61900</v>
+        <v>61300</v>
       </c>
       <c r="I57" s="3">
-        <v>16400</v>
+        <v>16200</v>
       </c>
       <c r="J57" s="3" t="s">
         <v>3</v>
@@ -2045,22 +2045,22 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>18100</v>
+        <v>17900</v>
       </c>
       <c r="E58" s="3">
-        <v>82800</v>
+        <v>82000</v>
       </c>
       <c r="F58" s="3">
-        <v>93400</v>
+        <v>92400</v>
       </c>
       <c r="G58" s="3">
-        <v>154500</v>
+        <v>152900</v>
       </c>
       <c r="H58" s="3">
-        <v>178100</v>
+        <v>176300</v>
       </c>
       <c r="I58" s="3">
-        <v>123200</v>
+        <v>122000</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>3</v>
@@ -2075,22 +2075,22 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>60300</v>
+        <v>59700</v>
       </c>
       <c r="E59" s="3">
-        <v>208300</v>
+        <v>206200</v>
       </c>
       <c r="F59" s="3">
-        <v>146100</v>
+        <v>144600</v>
       </c>
       <c r="G59" s="3">
-        <v>49400</v>
+        <v>48900</v>
       </c>
       <c r="H59" s="3">
-        <v>42900</v>
+        <v>42500</v>
       </c>
       <c r="I59" s="3">
-        <v>28900</v>
+        <v>28600</v>
       </c>
       <c r="J59" s="3" t="s">
         <v>3</v>
@@ -2105,22 +2105,22 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>96000</v>
+        <v>95000</v>
       </c>
       <c r="E60" s="3">
-        <v>337200</v>
+        <v>333700</v>
       </c>
       <c r="F60" s="3">
-        <v>281700</v>
+        <v>278900</v>
       </c>
       <c r="G60" s="3">
-        <v>243700</v>
+        <v>241200</v>
       </c>
       <c r="H60" s="3">
-        <v>282900</v>
+        <v>280000</v>
       </c>
       <c r="I60" s="3">
-        <v>168500</v>
+        <v>166800</v>
       </c>
       <c r="J60" s="3" t="s">
         <v>3</v>
@@ -2138,19 +2138,19 @@
         <v>0</v>
       </c>
       <c r="E61" s="3">
-        <v>74000</v>
+        <v>73200</v>
       </c>
       <c r="F61" s="3">
-        <v>67000</v>
+        <v>66300</v>
       </c>
       <c r="G61" s="3">
-        <v>61500</v>
+        <v>60900</v>
       </c>
       <c r="H61" s="3">
-        <v>23800</v>
+        <v>23500</v>
       </c>
       <c r="I61" s="3">
-        <v>26200</v>
+        <v>25900</v>
       </c>
       <c r="J61" s="3">
         <v>0</v>
@@ -2171,16 +2171,16 @@
         <v>0</v>
       </c>
       <c r="F62" s="3">
-        <v>59900</v>
+        <v>59200</v>
       </c>
       <c r="G62" s="3">
-        <v>69700</v>
+        <v>69000</v>
       </c>
       <c r="H62" s="3">
-        <v>61100</v>
+        <v>60400</v>
       </c>
       <c r="I62" s="3">
-        <v>29300</v>
+        <v>29000</v>
       </c>
       <c r="J62" s="3" t="s">
         <v>3</v>
@@ -2285,22 +2285,22 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>96000</v>
+        <v>95000</v>
       </c>
       <c r="E66" s="3">
-        <v>412500</v>
+        <v>408300</v>
       </c>
       <c r="F66" s="3">
-        <v>410000</v>
+        <v>405800</v>
       </c>
       <c r="G66" s="3">
-        <v>376300</v>
+        <v>372500</v>
       </c>
       <c r="H66" s="3">
-        <v>370300</v>
+        <v>366500</v>
       </c>
       <c r="I66" s="3">
-        <v>226500</v>
+        <v>224200</v>
       </c>
       <c r="J66" s="3" t="s">
         <v>3</v>
@@ -2398,13 +2398,13 @@
         <v>0</v>
       </c>
       <c r="G70" s="3">
-        <v>209900</v>
+        <v>207700</v>
       </c>
       <c r="H70" s="3">
-        <v>97600</v>
+        <v>96600</v>
       </c>
       <c r="I70" s="3">
-        <v>58100</v>
+        <v>57500</v>
       </c>
       <c r="J70" s="3">
         <v>0</v>
@@ -2449,22 +2449,22 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-511100</v>
+        <v>-505900</v>
       </c>
       <c r="E72" s="3">
-        <v>-628900</v>
+        <v>-622400</v>
       </c>
       <c r="F72" s="3">
-        <v>-547100</v>
+        <v>-541500</v>
       </c>
       <c r="G72" s="3">
-        <v>-326900</v>
+        <v>-323500</v>
       </c>
       <c r="H72" s="3">
-        <v>-212300</v>
+        <v>-210200</v>
       </c>
       <c r="I72" s="3">
-        <v>-121400</v>
+        <v>-120200</v>
       </c>
       <c r="J72" s="3" t="s">
         <v>3</v>
@@ -2569,22 +2569,22 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-82300</v>
+        <v>-81400</v>
       </c>
       <c r="E76" s="3">
-        <v>-358300</v>
+        <v>-354600</v>
       </c>
       <c r="F76" s="3">
-        <v>-287800</v>
+        <v>-284900</v>
       </c>
       <c r="G76" s="3">
-        <v>-327700</v>
+        <v>-324300</v>
       </c>
       <c r="H76" s="3">
-        <v>-212100</v>
+        <v>-209900</v>
       </c>
       <c r="I76" s="3">
-        <v>-121800</v>
+        <v>-120600</v>
       </c>
       <c r="J76" s="3" t="s">
         <v>3</v>
@@ -2664,22 +2664,22 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>117800</v>
+        <v>116600</v>
       </c>
       <c r="E81" s="3">
-        <v>-81700</v>
+        <v>-80900</v>
       </c>
       <c r="F81" s="3">
-        <v>-220300</v>
+        <v>-218000</v>
       </c>
       <c r="G81" s="3">
-        <v>-115700</v>
+        <v>-114500</v>
       </c>
       <c r="H81" s="3">
-        <v>-91300</v>
+        <v>-90300</v>
       </c>
       <c r="I81" s="3">
-        <v>-43700</v>
+        <v>-43200</v>
       </c>
       <c r="J81" s="3" t="s">
         <v>3</v>
@@ -2711,19 +2711,19 @@
         <v>3900</v>
       </c>
       <c r="E83" s="3">
-        <v>11400</v>
+        <v>11300</v>
       </c>
       <c r="F83" s="3">
-        <v>37800</v>
+        <v>37400</v>
       </c>
       <c r="G83" s="3">
-        <v>30900</v>
+        <v>30600</v>
       </c>
       <c r="H83" s="3">
-        <v>21900</v>
+        <v>21700</v>
       </c>
       <c r="I83" s="3">
-        <v>14600</v>
+        <v>14500</v>
       </c>
       <c r="J83" s="3" t="s">
         <v>3</v>
@@ -2888,22 +2888,22 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-5700</v>
+        <v>-5600</v>
       </c>
       <c r="E89" s="3">
-        <v>-15700</v>
+        <v>-15600</v>
       </c>
       <c r="F89" s="3">
-        <v>7900</v>
+        <v>7800</v>
       </c>
       <c r="G89" s="3">
-        <v>-12700</v>
+        <v>-12500</v>
       </c>
       <c r="H89" s="3">
-        <v>-16800</v>
+        <v>-16600</v>
       </c>
       <c r="I89" s="3">
-        <v>-6300</v>
+        <v>-6200</v>
       </c>
       <c r="J89" s="3" t="s">
         <v>3</v>
@@ -2938,16 +2938,16 @@
         <v>0</v>
       </c>
       <c r="F91" s="3">
-        <v>-14200</v>
+        <v>-14100</v>
       </c>
       <c r="G91" s="3">
-        <v>-49100</v>
+        <v>-48600</v>
       </c>
       <c r="H91" s="3">
-        <v>-96800</v>
+        <v>-95900</v>
       </c>
       <c r="I91" s="3">
-        <v>-41000</v>
+        <v>-40600</v>
       </c>
       <c r="J91" s="3" t="s">
         <v>3</v>
@@ -3028,16 +3028,16 @@
         <v>-900</v>
       </c>
       <c r="F94" s="3">
-        <v>-19900</v>
+        <v>-19700</v>
       </c>
       <c r="G94" s="3">
-        <v>-50500</v>
+        <v>-50000</v>
       </c>
       <c r="H94" s="3">
-        <v>-96800</v>
+        <v>-95900</v>
       </c>
       <c r="I94" s="3">
-        <v>-41000</v>
+        <v>-40600</v>
       </c>
       <c r="J94" s="3" t="s">
         <v>3</v>
@@ -3189,19 +3189,19 @@
         <v>4200</v>
       </c>
       <c r="E100" s="3">
-        <v>14600</v>
+        <v>14400</v>
       </c>
       <c r="F100" s="3">
-        <v>-19400</v>
+        <v>-19200</v>
       </c>
       <c r="G100" s="3">
-        <v>81800</v>
+        <v>81000</v>
       </c>
       <c r="H100" s="3">
-        <v>77500</v>
+        <v>76700</v>
       </c>
       <c r="I100" s="3">
-        <v>93300</v>
+        <v>92300</v>
       </c>
       <c r="J100" s="3" t="s">
         <v>3</v>
@@ -3246,22 +3246,22 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-2400</v>
+        <v>-2300</v>
       </c>
       <c r="E102" s="3">
         <v>-1800</v>
       </c>
       <c r="F102" s="3">
-        <v>-31500</v>
+        <v>-31100</v>
       </c>
       <c r="G102" s="3">
-        <v>19000</v>
+        <v>18800</v>
       </c>
       <c r="H102" s="3">
-        <v>-35700</v>
+        <v>-35300</v>
       </c>
       <c r="I102" s="3">
-        <v>46000</v>
+        <v>45500</v>
       </c>
       <c r="J102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Yearly/FLJ_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/FLJ_YR_FIN.xlsx
@@ -715,22 +715,22 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>92700</v>
+        <v>89900</v>
       </c>
       <c r="E8" s="3">
-        <v>147300</v>
+        <v>142800</v>
       </c>
       <c r="F8" s="3">
-        <v>171700</v>
+        <v>166400</v>
       </c>
       <c r="G8" s="3">
-        <v>175400</v>
+        <v>170000</v>
       </c>
       <c r="H8" s="3">
-        <v>126500</v>
+        <v>122600</v>
       </c>
       <c r="I8" s="3">
-        <v>74300</v>
+        <v>72000</v>
       </c>
       <c r="J8" s="3" t="s">
         <v>3</v>
@@ -745,22 +745,22 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>101100</v>
+        <v>98000</v>
       </c>
       <c r="E9" s="3">
-        <v>135000</v>
+        <v>130800</v>
       </c>
       <c r="F9" s="3">
-        <v>173100</v>
+        <v>167800</v>
       </c>
       <c r="G9" s="3">
-        <v>191600</v>
+        <v>185700</v>
       </c>
       <c r="H9" s="3">
-        <v>144300</v>
+        <v>139900</v>
       </c>
       <c r="I9" s="3">
-        <v>80700</v>
+        <v>78200</v>
       </c>
       <c r="J9" s="3" t="s">
         <v>3</v>
@@ -775,22 +775,22 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>-8300</v>
+        <v>-8100</v>
       </c>
       <c r="E10" s="3">
-        <v>12300</v>
+        <v>11900</v>
       </c>
       <c r="F10" s="3">
-        <v>-1400</v>
+        <v>-1300</v>
       </c>
       <c r="G10" s="3">
-        <v>-16200</v>
+        <v>-15700</v>
       </c>
       <c r="H10" s="3">
-        <v>-17800</v>
+        <v>-17200</v>
       </c>
       <c r="I10" s="3">
-        <v>-6400</v>
+        <v>-6200</v>
       </c>
       <c r="J10" s="3" t="s">
         <v>3</v>
@@ -825,16 +825,16 @@
         <v>1100</v>
       </c>
       <c r="F12" s="3">
-        <v>3500</v>
+        <v>3400</v>
       </c>
       <c r="G12" s="3">
-        <v>6700</v>
+        <v>6500</v>
       </c>
       <c r="H12" s="3">
-        <v>7400</v>
+        <v>7200</v>
       </c>
       <c r="I12" s="3">
-        <v>6300</v>
+        <v>6100</v>
       </c>
       <c r="J12" s="3" t="s">
         <v>3</v>
@@ -879,22 +879,22 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>-146500</v>
+        <v>-142000</v>
       </c>
       <c r="E14" s="3">
-        <v>34300</v>
+        <v>33300</v>
       </c>
       <c r="F14" s="3">
-        <v>120400</v>
+        <v>116700</v>
       </c>
       <c r="G14" s="3">
-        <v>6600</v>
+        <v>6400</v>
       </c>
       <c r="H14" s="3">
-        <v>7200</v>
+        <v>7000</v>
       </c>
       <c r="I14" s="3">
-        <v>3200</v>
+        <v>3100</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>3</v>
@@ -950,22 +950,22 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>-33300</v>
+        <v>-32300</v>
       </c>
       <c r="E17" s="3">
-        <v>210100</v>
+        <v>203600</v>
       </c>
       <c r="F17" s="3">
-        <v>385000</v>
+        <v>373200</v>
       </c>
       <c r="G17" s="3">
-        <v>239100</v>
+        <v>231800</v>
       </c>
       <c r="H17" s="3">
-        <v>187100</v>
+        <v>181400</v>
       </c>
       <c r="I17" s="3">
-        <v>101300</v>
+        <v>98100</v>
       </c>
       <c r="J17" s="3" t="s">
         <v>3</v>
@@ -980,22 +980,22 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>126100</v>
+        <v>122200</v>
       </c>
       <c r="E18" s="3">
-        <v>-62800</v>
+        <v>-60800</v>
       </c>
       <c r="F18" s="3">
-        <v>-213300</v>
+        <v>-206800</v>
       </c>
       <c r="G18" s="3">
-        <v>-63700</v>
+        <v>-61800</v>
       </c>
       <c r="H18" s="3">
-        <v>-60600</v>
+        <v>-58800</v>
       </c>
       <c r="I18" s="3">
-        <v>-26900</v>
+        <v>-26100</v>
       </c>
       <c r="J18" s="3" t="s">
         <v>3</v>
@@ -1030,10 +1030,10 @@
         <v>0</v>
       </c>
       <c r="F20" s="3">
-        <v>13900</v>
+        <v>13500</v>
       </c>
       <c r="G20" s="3">
-        <v>6300</v>
+        <v>6100</v>
       </c>
       <c r="H20" s="3">
         <v>1200</v>
@@ -1054,22 +1054,22 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>130000</v>
+        <v>126000</v>
       </c>
       <c r="E21" s="3">
-        <v>-51500</v>
+        <v>-50000</v>
       </c>
       <c r="F21" s="3">
-        <v>-161900</v>
+        <v>-157100</v>
       </c>
       <c r="G21" s="3">
-        <v>-26700</v>
+        <v>-26000</v>
       </c>
       <c r="H21" s="3">
-        <v>-37600</v>
+        <v>-36600</v>
       </c>
       <c r="I21" s="3">
-        <v>-13100</v>
+        <v>-12800</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>3</v>
@@ -1084,22 +1084,22 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>9500</v>
+        <v>9200</v>
       </c>
       <c r="E22" s="3">
-        <v>18100</v>
+        <v>17500</v>
       </c>
       <c r="F22" s="3">
-        <v>18600</v>
+        <v>18000</v>
       </c>
       <c r="G22" s="3">
-        <v>13400</v>
+        <v>13000</v>
       </c>
       <c r="H22" s="3">
-        <v>11300</v>
+        <v>11000</v>
       </c>
       <c r="I22" s="3">
-        <v>7200</v>
+        <v>6900</v>
       </c>
       <c r="J22" s="3" t="s">
         <v>3</v>
@@ -1114,22 +1114,22 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>116600</v>
+        <v>113000</v>
       </c>
       <c r="E23" s="3">
-        <v>-80900</v>
+        <v>-78400</v>
       </c>
       <c r="F23" s="3">
-        <v>-218000</v>
+        <v>-211300</v>
       </c>
       <c r="G23" s="3">
-        <v>-70800</v>
+        <v>-68700</v>
       </c>
       <c r="H23" s="3">
-        <v>-70700</v>
+        <v>-68500</v>
       </c>
       <c r="I23" s="3">
-        <v>-34800</v>
+        <v>-33700</v>
       </c>
       <c r="J23" s="3" t="s">
         <v>3</v>
@@ -1204,22 +1204,22 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>116600</v>
+        <v>113000</v>
       </c>
       <c r="E26" s="3">
-        <v>-80900</v>
+        <v>-78400</v>
       </c>
       <c r="F26" s="3">
-        <v>-218000</v>
+        <v>-211300</v>
       </c>
       <c r="G26" s="3">
-        <v>-70800</v>
+        <v>-68700</v>
       </c>
       <c r="H26" s="3">
-        <v>-71100</v>
+        <v>-68900</v>
       </c>
       <c r="I26" s="3">
-        <v>-34900</v>
+        <v>-33800</v>
       </c>
       <c r="J26" s="3" t="s">
         <v>3</v>
@@ -1234,22 +1234,22 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>116600</v>
+        <v>113000</v>
       </c>
       <c r="E27" s="3">
-        <v>-80900</v>
+        <v>-78400</v>
       </c>
       <c r="F27" s="3">
-        <v>-218000</v>
+        <v>-211300</v>
       </c>
       <c r="G27" s="3">
-        <v>-114500</v>
+        <v>-111000</v>
       </c>
       <c r="H27" s="3">
-        <v>-90300</v>
+        <v>-87500</v>
       </c>
       <c r="I27" s="3">
-        <v>-43200</v>
+        <v>-41900</v>
       </c>
       <c r="J27" s="3" t="s">
         <v>3</v>
@@ -1390,10 +1390,10 @@
         <v>0</v>
       </c>
       <c r="F32" s="3">
-        <v>-13900</v>
+        <v>-13500</v>
       </c>
       <c r="G32" s="3">
-        <v>-6300</v>
+        <v>-6100</v>
       </c>
       <c r="H32" s="3">
         <v>-1200</v>
@@ -1414,22 +1414,22 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>116600</v>
+        <v>113000</v>
       </c>
       <c r="E33" s="3">
-        <v>-80900</v>
+        <v>-78400</v>
       </c>
       <c r="F33" s="3">
-        <v>-218000</v>
+        <v>-211300</v>
       </c>
       <c r="G33" s="3">
-        <v>-114500</v>
+        <v>-111000</v>
       </c>
       <c r="H33" s="3">
-        <v>-90300</v>
+        <v>-87500</v>
       </c>
       <c r="I33" s="3">
-        <v>-43200</v>
+        <v>-41900</v>
       </c>
       <c r="J33" s="3" t="s">
         <v>3</v>
@@ -1474,22 +1474,22 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>116600</v>
+        <v>113000</v>
       </c>
       <c r="E35" s="3">
-        <v>-80900</v>
+        <v>-78400</v>
       </c>
       <c r="F35" s="3">
-        <v>-218000</v>
+        <v>-211300</v>
       </c>
       <c r="G35" s="3">
-        <v>-114500</v>
+        <v>-111000</v>
       </c>
       <c r="H35" s="3">
-        <v>-90300</v>
+        <v>-87500</v>
       </c>
       <c r="I35" s="3">
-        <v>-43200</v>
+        <v>-41900</v>
       </c>
       <c r="J35" s="3" t="s">
         <v>3</v>
@@ -1570,19 +1570,19 @@
         <v>400</v>
       </c>
       <c r="E41" s="3">
-        <v>2300</v>
+        <v>2200</v>
       </c>
       <c r="F41" s="3">
-        <v>3300</v>
+        <v>3200</v>
       </c>
       <c r="G41" s="3">
-        <v>22700</v>
+        <v>22000</v>
       </c>
       <c r="H41" s="3">
-        <v>14700</v>
+        <v>14300</v>
       </c>
       <c r="I41" s="3">
-        <v>51900</v>
+        <v>50300</v>
       </c>
       <c r="J41" s="3" t="s">
         <v>3</v>
@@ -1633,16 +1633,16 @@
         <v>1900</v>
       </c>
       <c r="F43" s="3">
-        <v>7600</v>
+        <v>7400</v>
       </c>
       <c r="G43" s="3">
-        <v>30900</v>
+        <v>30000</v>
       </c>
       <c r="H43" s="3">
-        <v>22500</v>
+        <v>21800</v>
       </c>
       <c r="I43" s="3">
-        <v>11700</v>
+        <v>11300</v>
       </c>
       <c r="J43" s="3" t="s">
         <v>3</v>
@@ -1687,22 +1687,22 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>8400</v>
+        <v>8100</v>
       </c>
       <c r="E45" s="3">
-        <v>20900</v>
+        <v>20200</v>
       </c>
       <c r="F45" s="3">
-        <v>18000</v>
+        <v>17400</v>
       </c>
       <c r="G45" s="3">
-        <v>31200</v>
+        <v>30200</v>
       </c>
       <c r="H45" s="3">
-        <v>26400</v>
+        <v>25600</v>
       </c>
       <c r="I45" s="3">
-        <v>13500</v>
+        <v>13000</v>
       </c>
       <c r="J45" s="3" t="s">
         <v>3</v>
@@ -1717,22 +1717,22 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>10100</v>
+        <v>9800</v>
       </c>
       <c r="E46" s="3">
-        <v>25100</v>
+        <v>24300</v>
       </c>
       <c r="F46" s="3">
-        <v>28900</v>
+        <v>28000</v>
       </c>
       <c r="G46" s="3">
-        <v>84800</v>
+        <v>82200</v>
       </c>
       <c r="H46" s="3">
-        <v>63700</v>
+        <v>61700</v>
       </c>
       <c r="I46" s="3">
-        <v>77100</v>
+        <v>74700</v>
       </c>
       <c r="J46" s="3" t="s">
         <v>3</v>
@@ -1780,19 +1780,19 @@
         <v>100</v>
       </c>
       <c r="E48" s="3">
-        <v>5500</v>
+        <v>5400</v>
       </c>
       <c r="F48" s="3">
-        <v>50900</v>
+        <v>49300</v>
       </c>
       <c r="G48" s="3">
-        <v>168500</v>
+        <v>163300</v>
       </c>
       <c r="H48" s="3">
-        <v>187800</v>
+        <v>182000</v>
       </c>
       <c r="I48" s="3">
-        <v>82200</v>
+        <v>79700</v>
       </c>
       <c r="J48" s="3" t="s">
         <v>3</v>
@@ -1810,10 +1810,10 @@
         <v>1900</v>
       </c>
       <c r="E49" s="3">
-        <v>21700</v>
+        <v>21000</v>
       </c>
       <c r="F49" s="3">
-        <v>33100</v>
+        <v>32000</v>
       </c>
       <c r="G49" s="3">
         <v>1700</v>
@@ -1822,7 +1822,7 @@
         <v>1700</v>
       </c>
       <c r="I49" s="3">
-        <v>1900</v>
+        <v>1800</v>
       </c>
       <c r="J49" s="3" t="s">
         <v>3</v>
@@ -1897,13 +1897,13 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="E52" s="3">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="F52" s="3">
-        <v>8100</v>
+        <v>7900</v>
       </c>
       <c r="G52" s="3">
         <v>800</v>
@@ -1957,22 +1957,22 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>13600</v>
+        <v>13200</v>
       </c>
       <c r="E54" s="3">
-        <v>53700</v>
+        <v>52000</v>
       </c>
       <c r="F54" s="3">
-        <v>120900</v>
+        <v>117200</v>
       </c>
       <c r="G54" s="3">
-        <v>255800</v>
+        <v>248000</v>
       </c>
       <c r="H54" s="3">
-        <v>253200</v>
+        <v>245400</v>
       </c>
       <c r="I54" s="3">
-        <v>161100</v>
+        <v>156200</v>
       </c>
       <c r="J54" s="3" t="s">
         <v>3</v>
@@ -2015,22 +2015,22 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>17400</v>
+        <v>16900</v>
       </c>
       <c r="E57" s="3">
-        <v>45500</v>
+        <v>44100</v>
       </c>
       <c r="F57" s="3">
-        <v>41900</v>
+        <v>40600</v>
       </c>
       <c r="G57" s="3">
-        <v>39400</v>
+        <v>38200</v>
       </c>
       <c r="H57" s="3">
-        <v>61300</v>
+        <v>59400</v>
       </c>
       <c r="I57" s="3">
-        <v>16200</v>
+        <v>15700</v>
       </c>
       <c r="J57" s="3" t="s">
         <v>3</v>
@@ -2045,22 +2045,22 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>17900</v>
+        <v>17300</v>
       </c>
       <c r="E58" s="3">
-        <v>82000</v>
+        <v>79500</v>
       </c>
       <c r="F58" s="3">
-        <v>92400</v>
+        <v>89600</v>
       </c>
       <c r="G58" s="3">
-        <v>152900</v>
+        <v>148200</v>
       </c>
       <c r="H58" s="3">
-        <v>176300</v>
+        <v>170900</v>
       </c>
       <c r="I58" s="3">
-        <v>122000</v>
+        <v>118200</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>3</v>
@@ -2075,22 +2075,22 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>59700</v>
+        <v>57900</v>
       </c>
       <c r="E59" s="3">
-        <v>206200</v>
+        <v>199900</v>
       </c>
       <c r="F59" s="3">
-        <v>144600</v>
+        <v>140100</v>
       </c>
       <c r="G59" s="3">
-        <v>48900</v>
+        <v>47400</v>
       </c>
       <c r="H59" s="3">
-        <v>42500</v>
+        <v>41200</v>
       </c>
       <c r="I59" s="3">
-        <v>28600</v>
+        <v>27700</v>
       </c>
       <c r="J59" s="3" t="s">
         <v>3</v>
@@ -2105,22 +2105,22 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>95000</v>
+        <v>92100</v>
       </c>
       <c r="E60" s="3">
-        <v>333700</v>
+        <v>323500</v>
       </c>
       <c r="F60" s="3">
-        <v>278900</v>
+        <v>270300</v>
       </c>
       <c r="G60" s="3">
-        <v>241200</v>
+        <v>233800</v>
       </c>
       <c r="H60" s="3">
-        <v>280000</v>
+        <v>271400</v>
       </c>
       <c r="I60" s="3">
-        <v>166800</v>
+        <v>161600</v>
       </c>
       <c r="J60" s="3" t="s">
         <v>3</v>
@@ -2138,19 +2138,19 @@
         <v>0</v>
       </c>
       <c r="E61" s="3">
-        <v>73200</v>
+        <v>70900</v>
       </c>
       <c r="F61" s="3">
-        <v>66300</v>
+        <v>64300</v>
       </c>
       <c r="G61" s="3">
-        <v>60900</v>
+        <v>59000</v>
       </c>
       <c r="H61" s="3">
-        <v>23500</v>
+        <v>22800</v>
       </c>
       <c r="I61" s="3">
-        <v>25900</v>
+        <v>25100</v>
       </c>
       <c r="J61" s="3">
         <v>0</v>
@@ -2171,16 +2171,16 @@
         <v>0</v>
       </c>
       <c r="F62" s="3">
-        <v>59200</v>
+        <v>57400</v>
       </c>
       <c r="G62" s="3">
-        <v>69000</v>
+        <v>66800</v>
       </c>
       <c r="H62" s="3">
-        <v>60400</v>
+        <v>58600</v>
       </c>
       <c r="I62" s="3">
-        <v>29000</v>
+        <v>28100</v>
       </c>
       <c r="J62" s="3" t="s">
         <v>3</v>
@@ -2285,22 +2285,22 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>95000</v>
+        <v>92100</v>
       </c>
       <c r="E66" s="3">
-        <v>408300</v>
+        <v>395700</v>
       </c>
       <c r="F66" s="3">
-        <v>405800</v>
+        <v>393300</v>
       </c>
       <c r="G66" s="3">
-        <v>372500</v>
+        <v>361000</v>
       </c>
       <c r="H66" s="3">
-        <v>366500</v>
+        <v>355200</v>
       </c>
       <c r="I66" s="3">
-        <v>224200</v>
+        <v>217300</v>
       </c>
       <c r="J66" s="3" t="s">
         <v>3</v>
@@ -2398,13 +2398,13 @@
         <v>0</v>
       </c>
       <c r="G70" s="3">
-        <v>207700</v>
+        <v>201300</v>
       </c>
       <c r="H70" s="3">
-        <v>96600</v>
+        <v>93700</v>
       </c>
       <c r="I70" s="3">
-        <v>57500</v>
+        <v>55700</v>
       </c>
       <c r="J70" s="3">
         <v>0</v>
@@ -2449,22 +2449,22 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-505900</v>
+        <v>-490300</v>
       </c>
       <c r="E72" s="3">
-        <v>-622400</v>
+        <v>-603300</v>
       </c>
       <c r="F72" s="3">
-        <v>-541500</v>
+        <v>-524900</v>
       </c>
       <c r="G72" s="3">
-        <v>-323500</v>
+        <v>-313600</v>
       </c>
       <c r="H72" s="3">
-        <v>-210200</v>
+        <v>-203700</v>
       </c>
       <c r="I72" s="3">
-        <v>-120200</v>
+        <v>-116500</v>
       </c>
       <c r="J72" s="3" t="s">
         <v>3</v>
@@ -2569,22 +2569,22 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-81400</v>
+        <v>-78900</v>
       </c>
       <c r="E76" s="3">
-        <v>-354600</v>
+        <v>-343700</v>
       </c>
       <c r="F76" s="3">
-        <v>-284900</v>
+        <v>-276100</v>
       </c>
       <c r="G76" s="3">
-        <v>-324300</v>
+        <v>-314400</v>
       </c>
       <c r="H76" s="3">
-        <v>-209900</v>
+        <v>-203500</v>
       </c>
       <c r="I76" s="3">
-        <v>-120600</v>
+        <v>-116800</v>
       </c>
       <c r="J76" s="3" t="s">
         <v>3</v>
@@ -2664,22 +2664,22 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>116600</v>
+        <v>113000</v>
       </c>
       <c r="E81" s="3">
-        <v>-80900</v>
+        <v>-78400</v>
       </c>
       <c r="F81" s="3">
-        <v>-218000</v>
+        <v>-211300</v>
       </c>
       <c r="G81" s="3">
-        <v>-114500</v>
+        <v>-111000</v>
       </c>
       <c r="H81" s="3">
-        <v>-90300</v>
+        <v>-87500</v>
       </c>
       <c r="I81" s="3">
-        <v>-43200</v>
+        <v>-41900</v>
       </c>
       <c r="J81" s="3" t="s">
         <v>3</v>
@@ -2708,22 +2708,22 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>3900</v>
+        <v>3800</v>
       </c>
       <c r="E83" s="3">
-        <v>11300</v>
+        <v>10900</v>
       </c>
       <c r="F83" s="3">
-        <v>37400</v>
+        <v>36200</v>
       </c>
       <c r="G83" s="3">
-        <v>30600</v>
+        <v>29600</v>
       </c>
       <c r="H83" s="3">
-        <v>21700</v>
+        <v>21000</v>
       </c>
       <c r="I83" s="3">
-        <v>14500</v>
+        <v>14000</v>
       </c>
       <c r="J83" s="3" t="s">
         <v>3</v>
@@ -2888,22 +2888,22 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-5600</v>
+        <v>-5500</v>
       </c>
       <c r="E89" s="3">
-        <v>-15600</v>
+        <v>-15100</v>
       </c>
       <c r="F89" s="3">
-        <v>7800</v>
+        <v>7600</v>
       </c>
       <c r="G89" s="3">
-        <v>-12500</v>
+        <v>-12200</v>
       </c>
       <c r="H89" s="3">
-        <v>-16600</v>
+        <v>-16100</v>
       </c>
       <c r="I89" s="3">
-        <v>-6200</v>
+        <v>-6000</v>
       </c>
       <c r="J89" s="3" t="s">
         <v>3</v>
@@ -2938,16 +2938,16 @@
         <v>0</v>
       </c>
       <c r="F91" s="3">
-        <v>-14100</v>
+        <v>-13700</v>
       </c>
       <c r="G91" s="3">
-        <v>-48600</v>
+        <v>-47100</v>
       </c>
       <c r="H91" s="3">
-        <v>-95900</v>
+        <v>-92900</v>
       </c>
       <c r="I91" s="3">
-        <v>-40600</v>
+        <v>-39300</v>
       </c>
       <c r="J91" s="3" t="s">
         <v>3</v>
@@ -3028,16 +3028,16 @@
         <v>-900</v>
       </c>
       <c r="F94" s="3">
-        <v>-19700</v>
+        <v>-19100</v>
       </c>
       <c r="G94" s="3">
-        <v>-50000</v>
+        <v>-48400</v>
       </c>
       <c r="H94" s="3">
-        <v>-95900</v>
+        <v>-92900</v>
       </c>
       <c r="I94" s="3">
-        <v>-40600</v>
+        <v>-39300</v>
       </c>
       <c r="J94" s="3" t="s">
         <v>3</v>
@@ -3186,22 +3186,22 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>4200</v>
+        <v>4000</v>
       </c>
       <c r="E100" s="3">
-        <v>14400</v>
+        <v>14000</v>
       </c>
       <c r="F100" s="3">
-        <v>-19200</v>
+        <v>-18600</v>
       </c>
       <c r="G100" s="3">
-        <v>81000</v>
+        <v>78500</v>
       </c>
       <c r="H100" s="3">
-        <v>76700</v>
+        <v>74300</v>
       </c>
       <c r="I100" s="3">
-        <v>92300</v>
+        <v>89500</v>
       </c>
       <c r="J100" s="3" t="s">
         <v>3</v>
@@ -3216,7 +3216,7 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="E101" s="3">
         <v>300</v>
@@ -3249,19 +3249,19 @@
         <v>-2300</v>
       </c>
       <c r="E102" s="3">
-        <v>-1800</v>
+        <v>-1700</v>
       </c>
       <c r="F102" s="3">
-        <v>-31100</v>
+        <v>-30200</v>
       </c>
       <c r="G102" s="3">
-        <v>18800</v>
+        <v>18200</v>
       </c>
       <c r="H102" s="3">
-        <v>-35300</v>
+        <v>-34200</v>
       </c>
       <c r="I102" s="3">
-        <v>45500</v>
+        <v>44100</v>
       </c>
       <c r="J102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Yearly/FLJ_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/FLJ_YR_FIN.xlsx
@@ -715,22 +715,22 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>89900</v>
+        <v>90100</v>
       </c>
       <c r="E8" s="3">
-        <v>142800</v>
+        <v>143100</v>
       </c>
       <c r="F8" s="3">
-        <v>166400</v>
+        <v>166800</v>
       </c>
       <c r="G8" s="3">
-        <v>170000</v>
+        <v>170400</v>
       </c>
       <c r="H8" s="3">
-        <v>122600</v>
+        <v>122900</v>
       </c>
       <c r="I8" s="3">
-        <v>72000</v>
+        <v>72200</v>
       </c>
       <c r="J8" s="3" t="s">
         <v>3</v>
@@ -745,22 +745,22 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>98000</v>
+        <v>98200</v>
       </c>
       <c r="E9" s="3">
-        <v>130800</v>
+        <v>131100</v>
       </c>
       <c r="F9" s="3">
-        <v>167800</v>
+        <v>168100</v>
       </c>
       <c r="G9" s="3">
-        <v>185700</v>
+        <v>186100</v>
       </c>
       <c r="H9" s="3">
-        <v>139900</v>
+        <v>140200</v>
       </c>
       <c r="I9" s="3">
-        <v>78200</v>
+        <v>78400</v>
       </c>
       <c r="J9" s="3" t="s">
         <v>3</v>
@@ -778,7 +778,7 @@
         <v>-8100</v>
       </c>
       <c r="E10" s="3">
-        <v>11900</v>
+        <v>12000</v>
       </c>
       <c r="F10" s="3">
         <v>-1300</v>
@@ -787,7 +787,7 @@
         <v>-15700</v>
       </c>
       <c r="H10" s="3">
-        <v>-17200</v>
+        <v>-17300</v>
       </c>
       <c r="I10" s="3">
         <v>-6200</v>
@@ -879,13 +879,13 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>-142000</v>
+        <v>-142300</v>
       </c>
       <c r="E14" s="3">
-        <v>33300</v>
+        <v>33400</v>
       </c>
       <c r="F14" s="3">
-        <v>116700</v>
+        <v>116900</v>
       </c>
       <c r="G14" s="3">
         <v>6400</v>
@@ -950,22 +950,22 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>-32300</v>
+        <v>-32400</v>
       </c>
       <c r="E17" s="3">
-        <v>203600</v>
+        <v>204100</v>
       </c>
       <c r="F17" s="3">
-        <v>373200</v>
+        <v>374000</v>
       </c>
       <c r="G17" s="3">
-        <v>231800</v>
+        <v>232300</v>
       </c>
       <c r="H17" s="3">
-        <v>181400</v>
+        <v>181800</v>
       </c>
       <c r="I17" s="3">
-        <v>98100</v>
+        <v>98400</v>
       </c>
       <c r="J17" s="3" t="s">
         <v>3</v>
@@ -980,22 +980,22 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>122200</v>
+        <v>122500</v>
       </c>
       <c r="E18" s="3">
-        <v>-60800</v>
+        <v>-61000</v>
       </c>
       <c r="F18" s="3">
-        <v>-206800</v>
+        <v>-207200</v>
       </c>
       <c r="G18" s="3">
-        <v>-61800</v>
+        <v>-61900</v>
       </c>
       <c r="H18" s="3">
-        <v>-58800</v>
+        <v>-58900</v>
       </c>
       <c r="I18" s="3">
-        <v>-26100</v>
+        <v>-26200</v>
       </c>
       <c r="J18" s="3" t="s">
         <v>3</v>
@@ -1054,19 +1054,19 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>126000</v>
+        <v>126200</v>
       </c>
       <c r="E21" s="3">
-        <v>-50000</v>
+        <v>-50100</v>
       </c>
       <c r="F21" s="3">
-        <v>-157100</v>
+        <v>-157400</v>
       </c>
       <c r="G21" s="3">
-        <v>-26000</v>
+        <v>-26100</v>
       </c>
       <c r="H21" s="3">
-        <v>-36600</v>
+        <v>-36700</v>
       </c>
       <c r="I21" s="3">
         <v>-12800</v>
@@ -1087,7 +1087,7 @@
         <v>9200</v>
       </c>
       <c r="E22" s="3">
-        <v>17500</v>
+        <v>17600</v>
       </c>
       <c r="F22" s="3">
         <v>18000</v>
@@ -1099,7 +1099,7 @@
         <v>11000</v>
       </c>
       <c r="I22" s="3">
-        <v>6900</v>
+        <v>7000</v>
       </c>
       <c r="J22" s="3" t="s">
         <v>3</v>
@@ -1114,22 +1114,22 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>113000</v>
+        <v>113200</v>
       </c>
       <c r="E23" s="3">
-        <v>-78400</v>
+        <v>-78600</v>
       </c>
       <c r="F23" s="3">
-        <v>-211300</v>
+        <v>-211800</v>
       </c>
       <c r="G23" s="3">
+        <v>-68800</v>
+      </c>
+      <c r="H23" s="3">
         <v>-68700</v>
       </c>
-      <c r="H23" s="3">
-        <v>-68500</v>
-      </c>
       <c r="I23" s="3">
-        <v>-33700</v>
+        <v>-33800</v>
       </c>
       <c r="J23" s="3" t="s">
         <v>3</v>
@@ -1204,22 +1204,22 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>113000</v>
+        <v>113200</v>
       </c>
       <c r="E26" s="3">
-        <v>-78400</v>
+        <v>-78600</v>
       </c>
       <c r="F26" s="3">
-        <v>-211300</v>
+        <v>-211800</v>
       </c>
       <c r="G26" s="3">
-        <v>-68700</v>
+        <v>-68800</v>
       </c>
       <c r="H26" s="3">
-        <v>-68900</v>
+        <v>-69000</v>
       </c>
       <c r="I26" s="3">
-        <v>-33800</v>
+        <v>-33900</v>
       </c>
       <c r="J26" s="3" t="s">
         <v>3</v>
@@ -1234,22 +1234,22 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>113000</v>
+        <v>113200</v>
       </c>
       <c r="E27" s="3">
-        <v>-78400</v>
+        <v>-78600</v>
       </c>
       <c r="F27" s="3">
-        <v>-211300</v>
+        <v>-211800</v>
       </c>
       <c r="G27" s="3">
-        <v>-111000</v>
+        <v>-111200</v>
       </c>
       <c r="H27" s="3">
-        <v>-87500</v>
+        <v>-87700</v>
       </c>
       <c r="I27" s="3">
-        <v>-41900</v>
+        <v>-42000</v>
       </c>
       <c r="J27" s="3" t="s">
         <v>3</v>
@@ -1414,22 +1414,22 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>113000</v>
+        <v>113200</v>
       </c>
       <c r="E33" s="3">
-        <v>-78400</v>
+        <v>-78600</v>
       </c>
       <c r="F33" s="3">
-        <v>-211300</v>
+        <v>-211800</v>
       </c>
       <c r="G33" s="3">
-        <v>-111000</v>
+        <v>-111200</v>
       </c>
       <c r="H33" s="3">
-        <v>-87500</v>
+        <v>-87700</v>
       </c>
       <c r="I33" s="3">
-        <v>-41900</v>
+        <v>-42000</v>
       </c>
       <c r="J33" s="3" t="s">
         <v>3</v>
@@ -1474,22 +1474,22 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>113000</v>
+        <v>113200</v>
       </c>
       <c r="E35" s="3">
-        <v>-78400</v>
+        <v>-78600</v>
       </c>
       <c r="F35" s="3">
-        <v>-211300</v>
+        <v>-211800</v>
       </c>
       <c r="G35" s="3">
-        <v>-111000</v>
+        <v>-111200</v>
       </c>
       <c r="H35" s="3">
-        <v>-87500</v>
+        <v>-87700</v>
       </c>
       <c r="I35" s="3">
-        <v>-41900</v>
+        <v>-42000</v>
       </c>
       <c r="J35" s="3" t="s">
         <v>3</v>
@@ -1570,19 +1570,19 @@
         <v>400</v>
       </c>
       <c r="E41" s="3">
-        <v>2200</v>
+        <v>2300</v>
       </c>
       <c r="F41" s="3">
         <v>3200</v>
       </c>
       <c r="G41" s="3">
-        <v>22000</v>
+        <v>22100</v>
       </c>
       <c r="H41" s="3">
         <v>14300</v>
       </c>
       <c r="I41" s="3">
-        <v>50300</v>
+        <v>50400</v>
       </c>
       <c r="J41" s="3" t="s">
         <v>3</v>
@@ -1639,10 +1639,10 @@
         <v>30000</v>
       </c>
       <c r="H43" s="3">
-        <v>21800</v>
+        <v>21900</v>
       </c>
       <c r="I43" s="3">
-        <v>11300</v>
+        <v>11400</v>
       </c>
       <c r="J43" s="3" t="s">
         <v>3</v>
@@ -1687,22 +1687,22 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>8100</v>
+        <v>8200</v>
       </c>
       <c r="E45" s="3">
-        <v>20200</v>
+        <v>20300</v>
       </c>
       <c r="F45" s="3">
         <v>17400</v>
       </c>
       <c r="G45" s="3">
-        <v>30200</v>
+        <v>30300</v>
       </c>
       <c r="H45" s="3">
         <v>25600</v>
       </c>
       <c r="I45" s="3">
-        <v>13000</v>
+        <v>13100</v>
       </c>
       <c r="J45" s="3" t="s">
         <v>3</v>
@@ -1720,19 +1720,19 @@
         <v>9800</v>
       </c>
       <c r="E46" s="3">
-        <v>24300</v>
+        <v>24400</v>
       </c>
       <c r="F46" s="3">
         <v>28000</v>
       </c>
       <c r="G46" s="3">
-        <v>82200</v>
+        <v>82400</v>
       </c>
       <c r="H46" s="3">
-        <v>61700</v>
+        <v>61900</v>
       </c>
       <c r="I46" s="3">
-        <v>74700</v>
+        <v>74800</v>
       </c>
       <c r="J46" s="3" t="s">
         <v>3</v>
@@ -1783,16 +1783,16 @@
         <v>5400</v>
       </c>
       <c r="F48" s="3">
-        <v>49300</v>
+        <v>49400</v>
       </c>
       <c r="G48" s="3">
-        <v>163300</v>
+        <v>163700</v>
       </c>
       <c r="H48" s="3">
-        <v>182000</v>
+        <v>182400</v>
       </c>
       <c r="I48" s="3">
-        <v>79700</v>
+        <v>79900</v>
       </c>
       <c r="J48" s="3" t="s">
         <v>3</v>
@@ -1810,10 +1810,10 @@
         <v>1900</v>
       </c>
       <c r="E49" s="3">
-        <v>21000</v>
+        <v>21100</v>
       </c>
       <c r="F49" s="3">
-        <v>32000</v>
+        <v>32100</v>
       </c>
       <c r="G49" s="3">
         <v>1700</v>
@@ -1960,19 +1960,19 @@
         <v>13200</v>
       </c>
       <c r="E54" s="3">
-        <v>52000</v>
+        <v>52100</v>
       </c>
       <c r="F54" s="3">
-        <v>117200</v>
+        <v>117500</v>
       </c>
       <c r="G54" s="3">
-        <v>248000</v>
+        <v>248500</v>
       </c>
       <c r="H54" s="3">
-        <v>245400</v>
+        <v>246000</v>
       </c>
       <c r="I54" s="3">
-        <v>156200</v>
+        <v>156500</v>
       </c>
       <c r="J54" s="3" t="s">
         <v>3</v>
@@ -2018,16 +2018,16 @@
         <v>16900</v>
       </c>
       <c r="E57" s="3">
-        <v>44100</v>
+        <v>44200</v>
       </c>
       <c r="F57" s="3">
-        <v>40600</v>
+        <v>40700</v>
       </c>
       <c r="G57" s="3">
-        <v>38200</v>
+        <v>38300</v>
       </c>
       <c r="H57" s="3">
-        <v>59400</v>
+        <v>59500</v>
       </c>
       <c r="I57" s="3">
         <v>15700</v>
@@ -2045,22 +2045,22 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>17300</v>
+        <v>17400</v>
       </c>
       <c r="E58" s="3">
-        <v>79500</v>
+        <v>79600</v>
       </c>
       <c r="F58" s="3">
-        <v>89600</v>
+        <v>89800</v>
       </c>
       <c r="G58" s="3">
-        <v>148200</v>
+        <v>148600</v>
       </c>
       <c r="H58" s="3">
-        <v>170900</v>
+        <v>171200</v>
       </c>
       <c r="I58" s="3">
-        <v>118200</v>
+        <v>118500</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>3</v>
@@ -2075,22 +2075,22 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>57900</v>
+        <v>58000</v>
       </c>
       <c r="E59" s="3">
-        <v>199900</v>
+        <v>200300</v>
       </c>
       <c r="F59" s="3">
-        <v>140100</v>
+        <v>140400</v>
       </c>
       <c r="G59" s="3">
-        <v>47400</v>
+        <v>47500</v>
       </c>
       <c r="H59" s="3">
-        <v>41200</v>
+        <v>41300</v>
       </c>
       <c r="I59" s="3">
-        <v>27700</v>
+        <v>27800</v>
       </c>
       <c r="J59" s="3" t="s">
         <v>3</v>
@@ -2105,22 +2105,22 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>92100</v>
+        <v>92300</v>
       </c>
       <c r="E60" s="3">
-        <v>323500</v>
+        <v>324200</v>
       </c>
       <c r="F60" s="3">
-        <v>270300</v>
+        <v>270900</v>
       </c>
       <c r="G60" s="3">
-        <v>233800</v>
+        <v>234300</v>
       </c>
       <c r="H60" s="3">
-        <v>271400</v>
+        <v>272000</v>
       </c>
       <c r="I60" s="3">
-        <v>161600</v>
+        <v>162000</v>
       </c>
       <c r="J60" s="3" t="s">
         <v>3</v>
@@ -2138,19 +2138,19 @@
         <v>0</v>
       </c>
       <c r="E61" s="3">
-        <v>70900</v>
+        <v>71100</v>
       </c>
       <c r="F61" s="3">
-        <v>64300</v>
+        <v>64400</v>
       </c>
       <c r="G61" s="3">
-        <v>59000</v>
+        <v>59100</v>
       </c>
       <c r="H61" s="3">
         <v>22800</v>
       </c>
       <c r="I61" s="3">
-        <v>25100</v>
+        <v>25200</v>
       </c>
       <c r="J61" s="3">
         <v>0</v>
@@ -2171,16 +2171,16 @@
         <v>0</v>
       </c>
       <c r="F62" s="3">
-        <v>57400</v>
+        <v>57600</v>
       </c>
       <c r="G62" s="3">
-        <v>66800</v>
+        <v>67000</v>
       </c>
       <c r="H62" s="3">
-        <v>58600</v>
+        <v>58700</v>
       </c>
       <c r="I62" s="3">
-        <v>28100</v>
+        <v>28200</v>
       </c>
       <c r="J62" s="3" t="s">
         <v>3</v>
@@ -2285,22 +2285,22 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>92100</v>
+        <v>92300</v>
       </c>
       <c r="E66" s="3">
-        <v>395700</v>
+        <v>396600</v>
       </c>
       <c r="F66" s="3">
-        <v>393300</v>
+        <v>394200</v>
       </c>
       <c r="G66" s="3">
-        <v>361000</v>
+        <v>361800</v>
       </c>
       <c r="H66" s="3">
-        <v>355200</v>
+        <v>356000</v>
       </c>
       <c r="I66" s="3">
-        <v>217300</v>
+        <v>217800</v>
       </c>
       <c r="J66" s="3" t="s">
         <v>3</v>
@@ -2398,13 +2398,13 @@
         <v>0</v>
       </c>
       <c r="G70" s="3">
-        <v>201300</v>
+        <v>201800</v>
       </c>
       <c r="H70" s="3">
-        <v>93700</v>
+        <v>93900</v>
       </c>
       <c r="I70" s="3">
-        <v>55700</v>
+        <v>55800</v>
       </c>
       <c r="J70" s="3">
         <v>0</v>
@@ -2449,22 +2449,22 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-490300</v>
+        <v>-491400</v>
       </c>
       <c r="E72" s="3">
-        <v>-603300</v>
+        <v>-604600</v>
       </c>
       <c r="F72" s="3">
-        <v>-524900</v>
+        <v>-526000</v>
       </c>
       <c r="G72" s="3">
-        <v>-313600</v>
+        <v>-314300</v>
       </c>
       <c r="H72" s="3">
-        <v>-203700</v>
+        <v>-204100</v>
       </c>
       <c r="I72" s="3">
-        <v>-116500</v>
+        <v>-116700</v>
       </c>
       <c r="J72" s="3" t="s">
         <v>3</v>
@@ -2569,22 +2569,22 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-78900</v>
+        <v>-79100</v>
       </c>
       <c r="E76" s="3">
-        <v>-343700</v>
+        <v>-344400</v>
       </c>
       <c r="F76" s="3">
-        <v>-276100</v>
+        <v>-276700</v>
       </c>
       <c r="G76" s="3">
-        <v>-314400</v>
+        <v>-315100</v>
       </c>
       <c r="H76" s="3">
-        <v>-203500</v>
+        <v>-203900</v>
       </c>
       <c r="I76" s="3">
-        <v>-116800</v>
+        <v>-117100</v>
       </c>
       <c r="J76" s="3" t="s">
         <v>3</v>
@@ -2664,22 +2664,22 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>113000</v>
+        <v>113200</v>
       </c>
       <c r="E81" s="3">
-        <v>-78400</v>
+        <v>-78600</v>
       </c>
       <c r="F81" s="3">
-        <v>-211300</v>
+        <v>-211800</v>
       </c>
       <c r="G81" s="3">
-        <v>-111000</v>
+        <v>-111200</v>
       </c>
       <c r="H81" s="3">
-        <v>-87500</v>
+        <v>-87700</v>
       </c>
       <c r="I81" s="3">
-        <v>-41900</v>
+        <v>-42000</v>
       </c>
       <c r="J81" s="3" t="s">
         <v>3</v>
@@ -2714,16 +2714,16 @@
         <v>10900</v>
       </c>
       <c r="F83" s="3">
-        <v>36200</v>
+        <v>36300</v>
       </c>
       <c r="G83" s="3">
-        <v>29600</v>
+        <v>29700</v>
       </c>
       <c r="H83" s="3">
         <v>21000</v>
       </c>
       <c r="I83" s="3">
-        <v>14000</v>
+        <v>14100</v>
       </c>
       <c r="J83" s="3" t="s">
         <v>3</v>
@@ -2900,7 +2900,7 @@
         <v>-12200</v>
       </c>
       <c r="H89" s="3">
-        <v>-16100</v>
+        <v>-16200</v>
       </c>
       <c r="I89" s="3">
         <v>-6000</v>
@@ -2941,13 +2941,13 @@
         <v>-13700</v>
       </c>
       <c r="G91" s="3">
-        <v>-47100</v>
+        <v>-47200</v>
       </c>
       <c r="H91" s="3">
-        <v>-92900</v>
+        <v>-93100</v>
       </c>
       <c r="I91" s="3">
-        <v>-39300</v>
+        <v>-39400</v>
       </c>
       <c r="J91" s="3" t="s">
         <v>3</v>
@@ -3031,13 +3031,13 @@
         <v>-19100</v>
       </c>
       <c r="G94" s="3">
-        <v>-48400</v>
+        <v>-48500</v>
       </c>
       <c r="H94" s="3">
-        <v>-92900</v>
+        <v>-93100</v>
       </c>
       <c r="I94" s="3">
-        <v>-39300</v>
+        <v>-39400</v>
       </c>
       <c r="J94" s="3" t="s">
         <v>3</v>
@@ -3195,13 +3195,13 @@
         <v>-18600</v>
       </c>
       <c r="G100" s="3">
-        <v>78500</v>
+        <v>78600</v>
       </c>
       <c r="H100" s="3">
-        <v>74300</v>
+        <v>74500</v>
       </c>
       <c r="I100" s="3">
-        <v>89500</v>
+        <v>89700</v>
       </c>
       <c r="J100" s="3" t="s">
         <v>3</v>
@@ -3258,10 +3258,10 @@
         <v>18200</v>
       </c>
       <c r="H102" s="3">
-        <v>-34200</v>
+        <v>-34300</v>
       </c>
       <c r="I102" s="3">
-        <v>44100</v>
+        <v>44200</v>
       </c>
       <c r="J102" s="3" t="s">
         <v>3</v>
